--- a/raw_data/20200818_saline/20200818_Sensor2_Test_76.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_76.xlsx
@@ -1,2021 +1,2437 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABD866A-7E3E-4273-BB24-6BE0CBD375B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>67871.633104</v>
+        <v>67871.633103999993</v>
       </c>
       <c r="B2" s="1">
-        <v>18.853231</v>
+        <v>18.853231000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.100000</v>
+        <v>1242.0999999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-310.841000</v>
+        <v>-310.84100000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>67881.685528</v>
+        <v>67881.685528000002</v>
       </c>
       <c r="G2" s="1">
-        <v>18.856024</v>
+        <v>18.856024000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1268.260000</v>
+        <v>1268.26</v>
       </c>
       <c r="I2" s="1">
-        <v>-269.655000</v>
+        <v>-269.65499999999997</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>67891.789558</v>
+        <v>67891.789558000004</v>
       </c>
       <c r="L2" s="1">
-        <v>18.858830</v>
+        <v>18.858830000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.970000</v>
+        <v>1305.97</v>
       </c>
       <c r="N2" s="1">
-        <v>-206.363000</v>
+        <v>-206.363</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>67902.576555</v>
+        <v>67902.576555000007</v>
       </c>
       <c r="Q2" s="1">
-        <v>18.861827</v>
+        <v>18.861827000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1318.570000</v>
+        <v>1318.57</v>
       </c>
       <c r="S2" s="1">
-        <v>-188.081000</v>
+        <v>-188.08099999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>67913.210287</v>
+        <v>67913.210286999994</v>
       </c>
       <c r="V2" s="1">
-        <v>18.864781</v>
+        <v>18.864781000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.320000</v>
+        <v>1332.32</v>
       </c>
       <c r="X2" s="1">
-        <v>-174.068000</v>
+        <v>-174.06800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>67923.636653</v>
+        <v>67923.636652999994</v>
       </c>
       <c r="AA2" s="1">
         <v>18.867677</v>
       </c>
       <c r="AB2" s="1">
-        <v>1350.170000</v>
+        <v>1350.17</v>
       </c>
       <c r="AC2" s="1">
-        <v>-171.384000</v>
+        <v>-171.38399999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>67933.843457</v>
+        <v>67933.843456999995</v>
       </c>
       <c r="AF2" s="1">
-        <v>18.870512</v>
+        <v>18.870512000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.734000</v>
+        <v>-180.73400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>67944.299489</v>
+        <v>67944.299488999997</v>
       </c>
       <c r="AK2" s="1">
         <v>18.873417</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM2" s="1">
-        <v>-210.146000</v>
+        <v>-210.14599999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>67954.874970</v>
+        <v>67954.874970000004</v>
       </c>
       <c r="AP2" s="1">
-        <v>18.876354</v>
+        <v>18.876353999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1407.170000</v>
+        <v>1407.17</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.435000</v>
+        <v>-253.435</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>67966.186980</v>
+        <v>67966.186979999999</v>
       </c>
       <c r="AU2" s="1">
         <v>18.879496</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.430000</v>
+        <v>1432.43</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.626000</v>
+        <v>-312.62599999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>67977.201605</v>
+        <v>67977.201604999995</v>
       </c>
       <c r="AZ2" s="1">
-        <v>18.882556</v>
+        <v>18.882556000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1452.160000</v>
+        <v>1452.16</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.004000</v>
+        <v>-364.00400000000002</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>67987.739607</v>
+        <v>67987.739606999996</v>
       </c>
       <c r="BE2" s="1">
-        <v>18.885483</v>
+        <v>18.885483000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.010000</v>
+        <v>1539.01</v>
       </c>
       <c r="BG2" s="1">
-        <v>-608.687000</v>
+        <v>-608.68700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>67998.752820</v>
+        <v>67998.752819999994</v>
       </c>
       <c r="BJ2" s="1">
-        <v>18.888542</v>
+        <v>18.888542000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.150000</v>
+        <v>1695.15</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1046.170000</v>
+        <v>-1046.17</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>68009.917723</v>
+        <v>68009.917723000006</v>
       </c>
       <c r="BO2" s="1">
-        <v>18.891644</v>
+        <v>18.891643999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1991.910000</v>
+        <v>1991.91</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1801.520000</v>
+        <v>-1801.52</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>68021.399645</v>
+        <v>68021.399644999998</v>
       </c>
       <c r="BT2" s="1">
-        <v>18.894833</v>
+        <v>18.894832999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>2382.740000</v>
+        <v>2382.7399999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2669.590000</v>
+        <v>-2669.59</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>68032.153373</v>
+        <v>68032.153372999994</v>
       </c>
       <c r="BY2" s="1">
-        <v>18.897820</v>
+        <v>18.897819999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2864.160000</v>
+        <v>2864.16</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3612.830000</v>
+        <v>-3612.83</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>68042.967158</v>
+        <v>68042.967157999999</v>
       </c>
       <c r="CD2" s="1">
         <v>18.900824</v>
       </c>
       <c r="CE2" s="1">
-        <v>4280.330000</v>
+        <v>4280.33</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5862.340000</v>
+        <v>-5862.34</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>67871.977824</v>
+        <v>67871.977824000001</v>
       </c>
       <c r="B3" s="1">
         <v>18.853327</v>
       </c>
       <c r="C3" s="1">
-        <v>1241.840000</v>
+        <v>1241.8399999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-310.812000</v>
+        <v>-310.81200000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>67882.111092</v>
+        <v>67882.111092000006</v>
       </c>
       <c r="G3" s="1">
-        <v>18.856142</v>
+        <v>18.856141999999998</v>
       </c>
       <c r="H3" s="1">
-        <v>1267.970000</v>
+        <v>1267.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.619000</v>
+        <v>-268.61900000000003</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>67892.205670</v>
+        <v>67892.205669999996</v>
       </c>
       <c r="L3" s="1">
         <v>18.858946</v>
       </c>
       <c r="M3" s="1">
-        <v>1306.160000</v>
+        <v>1306.1600000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-206.271000</v>
+        <v>-206.27099999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>67903.001097</v>
       </c>
       <c r="Q3" s="1">
-        <v>18.861945</v>
+        <v>18.861944999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="S3" s="1">
-        <v>-188.027000</v>
+        <v>-188.02699999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>67913.578777</v>
+        <v>67913.578777000002</v>
       </c>
       <c r="V3" s="1">
-        <v>18.864883</v>
+        <v>18.864882999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="X3" s="1">
-        <v>-174.005000</v>
+        <v>-174.005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>67924.002205</v>
+        <v>67924.002204999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>18.867778</v>
+        <v>18.867778000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.310000</v>
+        <v>1350.31</v>
       </c>
       <c r="AC3" s="1">
-        <v>-171.481000</v>
+        <v>-171.48099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>67934.225774</v>
+        <v>67934.225774000006</v>
       </c>
       <c r="AF3" s="1">
         <v>18.870618</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.635000</v>
+        <v>-180.63499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>67944.687858</v>
+        <v>67944.687858000005</v>
       </c>
       <c r="AK3" s="1">
         <v>18.873524</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM3" s="1">
-        <v>-210.153000</v>
+        <v>-210.15299999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>67955.621697</v>
+        <v>67955.621696999995</v>
       </c>
       <c r="AP3" s="1">
         <v>18.876562</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1407.220000</v>
+        <v>1407.22</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.450000</v>
+        <v>-253.45</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>67966.553491</v>
+        <v>67966.553490999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>18.879598</v>
+        <v>18.879598000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.615000</v>
+        <v>-312.61500000000001</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>67977.591460</v>
+        <v>67977.591459999996</v>
       </c>
       <c r="AZ3" s="1">
-        <v>18.882664</v>
+        <v>18.882663999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1452.170000</v>
+        <v>1452.17</v>
       </c>
       <c r="BB3" s="1">
-        <v>-363.992000</v>
+        <v>-363.99200000000002</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>67988.105381</v>
+        <v>67988.105381000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>18.885585</v>
+        <v>18.885584999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG3" s="1">
-        <v>-608.676000</v>
+        <v>-608.67600000000004</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>67999.168957</v>
+        <v>67999.168957000002</v>
       </c>
       <c r="BJ3" s="1">
         <v>18.888658</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.240000</v>
+        <v>1695.24</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1046.250000</v>
+        <v>-1046.25</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>68010.655305</v>
+        <v>68010.655304999993</v>
       </c>
       <c r="BO3" s="1">
-        <v>18.891849</v>
+        <v>18.891849000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1991.590000</v>
+        <v>1991.59</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1801.600000</v>
+        <v>-1801.6</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>68021.596028</v>
       </c>
       <c r="BT3" s="1">
-        <v>18.894888</v>
+        <v>18.894888000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2382.890000</v>
+        <v>2382.89</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2669.850000</v>
+        <v>-2669.85</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>68032.327964</v>
+        <v>68032.327963999996</v>
       </c>
       <c r="BY3" s="1">
         <v>18.897869</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2863.730000</v>
+        <v>2863.73</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3612.410000</v>
+        <v>-3612.41</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>68043.513743</v>
+        <v>68043.513743000003</v>
       </c>
       <c r="CD3" s="1">
         <v>18.900976</v>
       </c>
       <c r="CE3" s="1">
-        <v>4267.880000</v>
+        <v>4267.88</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5861.990000</v>
+        <v>-5861.99</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>67872.412817</v>
+        <v>67872.412817000004</v>
       </c>
       <c r="B4" s="1">
         <v>18.853448</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.040000</v>
+        <v>1242.04</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.056000</v>
+        <v>-311.05599999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>67882.415138</v>
+        <v>67882.415137999997</v>
       </c>
       <c r="G4" s="1">
-        <v>18.856226</v>
+        <v>18.856225999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1268.590000</v>
+        <v>1268.5899999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-269.025000</v>
+        <v>-269.02499999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>67892.521621</v>
+        <v>67892.521621000007</v>
       </c>
       <c r="L4" s="1">
-        <v>18.859034</v>
+        <v>18.859034000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.890000</v>
+        <v>1305.8900000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-206.420000</v>
+        <v>-206.42</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>67903.348327</v>
       </c>
       <c r="Q4" s="1">
-        <v>18.862041</v>
+        <v>18.862041000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S4" s="1">
-        <v>-187.969000</v>
+        <v>-187.96899999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>67913.920522</v>
       </c>
       <c r="V4" s="1">
-        <v>18.864978</v>
+        <v>18.864978000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1332.380000</v>
+        <v>1332.38</v>
       </c>
       <c r="X4" s="1">
-        <v>-174.032000</v>
+        <v>-174.03200000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>67924.350891</v>
+        <v>67924.350890999995</v>
       </c>
       <c r="AA4" s="1">
-        <v>18.867875</v>
+        <v>18.867875000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>1350.150000</v>
+        <v>1350.15</v>
       </c>
       <c r="AC4" s="1">
-        <v>-171.417000</v>
+        <v>-171.417</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>67934.913198</v>
+        <v>67934.913197999995</v>
       </c>
       <c r="AF4" s="1">
-        <v>18.870809</v>
+        <v>18.870809000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.570000</v>
+        <v>1363.57</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.735000</v>
+        <v>-180.73500000000001</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>67945.382751</v>
+        <v>67945.382750999997</v>
       </c>
       <c r="AK4" s="1">
-        <v>18.873717</v>
+        <v>18.873716999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM4" s="1">
-        <v>-210.141000</v>
+        <v>-210.14099999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>67955.982258</v>
+        <v>67955.982258000004</v>
       </c>
       <c r="AP4" s="1">
         <v>18.876662</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.410000</v>
+        <v>-253.41</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>67966.919571</v>
+        <v>67966.919571000006</v>
       </c>
       <c r="AU4" s="1">
-        <v>18.879700</v>
+        <v>18.8797</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.450000</v>
+        <v>1432.45</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.616000</v>
+        <v>-312.61599999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>67977.951557</v>
+        <v>67977.951556999993</v>
       </c>
       <c r="AZ4" s="1">
-        <v>18.882764</v>
+        <v>18.882764000000002</v>
       </c>
       <c r="BA4" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.028000</v>
+        <v>-364.02800000000002</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>67988.767814</v>
+        <v>67988.767814000006</v>
       </c>
       <c r="BE4" s="1">
         <v>18.885769</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.040000</v>
+        <v>1539.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-608.698000</v>
+        <v>-608.69799999999998</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>67999.913943</v>
+        <v>67999.913943000007</v>
       </c>
       <c r="BJ4" s="1">
-        <v>18.888865</v>
+        <v>18.888864999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.000000</v>
+        <v>1695</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1046.420000</v>
+        <v>-1046.42</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>68010.765913</v>
+        <v>68010.765912999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>18.891879</v>
+        <v>18.891878999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1991.550000</v>
+        <v>1991.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1801.740000</v>
+        <v>-1801.74</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>68022.022091</v>
+        <v>68022.022091000006</v>
       </c>
       <c r="BT4" s="1">
-        <v>18.895006</v>
+        <v>18.895005999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>2382.700000</v>
+        <v>2382.6999999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2669.890000</v>
+        <v>-2669.89</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>68032.780812</v>
+        <v>68032.780811999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>18.897995</v>
+        <v>18.897995000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2863.730000</v>
+        <v>2863.73</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3612.610000</v>
+        <v>-3612.61</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>68044.034541</v>
+        <v>68044.034541000001</v>
       </c>
       <c r="CD4" s="1">
         <v>18.901121</v>
       </c>
       <c r="CE4" s="1">
-        <v>4266.820000</v>
+        <v>4266.82</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5881.130000</v>
+        <v>-5881.13</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>67872.690080</v>
+        <v>67872.69008</v>
       </c>
       <c r="B5" s="1">
-        <v>18.853525</v>
+        <v>18.853525000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1241.820000</v>
+        <v>1241.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-310.818000</v>
+        <v>-310.81799999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>67882.754439</v>
+        <v>67882.754438999997</v>
       </c>
       <c r="G5" s="1">
-        <v>18.856321</v>
+        <v>18.856321000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1268.080000</v>
+        <v>1268.08</v>
       </c>
       <c r="I5" s="1">
-        <v>-269.927000</v>
+        <v>-269.92700000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>67892.863690</v>
+        <v>67892.863689999998</v>
       </c>
       <c r="L5" s="1">
-        <v>18.859129</v>
+        <v>18.859128999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.900000</v>
+        <v>1305.9000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-206.151000</v>
+        <v>-206.15100000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>67903.695992</v>
+        <v>67903.695991999994</v>
       </c>
       <c r="Q5" s="1">
-        <v>18.862138</v>
+        <v>18.862138000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S5" s="1">
-        <v>-187.994000</v>
+        <v>-187.994</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>67914.606985</v>
+        <v>67914.606985000006</v>
       </c>
       <c r="V5" s="1">
-        <v>18.865169</v>
+        <v>18.865169000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.300000</v>
+        <v>1332.3</v>
       </c>
       <c r="X5" s="1">
-        <v>-173.990000</v>
+        <v>-173.99</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>67925.049791</v>
+        <v>67925.049790999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>18.868069</v>
+        <v>18.868068999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.320000</v>
+        <v>1350.32</v>
       </c>
       <c r="AC5" s="1">
-        <v>-171.346000</v>
+        <v>-171.346</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>67935.257420</v>
+        <v>67935.257419999994</v>
       </c>
       <c r="AF5" s="1">
         <v>18.870905</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.660000</v>
+        <v>1363.66</v>
       </c>
       <c r="AH5" s="1">
-        <v>-180.997000</v>
+        <v>-180.99700000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>67945.732927</v>
+        <v>67945.732927000005</v>
       </c>
       <c r="AK5" s="1">
         <v>18.873815</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.880000</v>
+        <v>1384.88</v>
       </c>
       <c r="AM5" s="1">
-        <v>-210.166000</v>
+        <v>-210.166</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>67956.342385</v>
+        <v>67956.342384999996</v>
       </c>
       <c r="AP5" s="1">
-        <v>18.876762</v>
+        <v>18.876761999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.378000</v>
+        <v>-253.37799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>67967.601041</v>
+        <v>67967.601041000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>18.879889</v>
+        <v>18.879888999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.600000</v>
+        <v>-312.60000000000002</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>67978.617219</v>
+        <v>67978.617219000007</v>
       </c>
       <c r="AZ5" s="1">
         <v>18.882949</v>
       </c>
       <c r="BA5" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.022000</v>
+        <v>-364.02199999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>67989.210741</v>
+        <v>67989.210741000003</v>
       </c>
       <c r="BE5" s="1">
-        <v>18.885892</v>
+        <v>18.885891999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG5" s="1">
-        <v>-608.659000</v>
+        <v>-608.65899999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>68000.292881</v>
+        <v>68000.292881000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>18.888970</v>
+        <v>18.88897</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1046.210000</v>
+        <v>-1046.21</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>68011.184535</v>
+        <v>68011.184534999993</v>
       </c>
       <c r="BO5" s="1">
-        <v>18.891996</v>
+        <v>18.891995999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1991.590000</v>
+        <v>1991.59</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1801.710000</v>
+        <v>-1801.71</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>68022.438235</v>
+        <v>68022.438234999994</v>
       </c>
       <c r="BT5" s="1">
-        <v>18.895122</v>
+        <v>18.895122000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2382.650000</v>
+        <v>2382.65</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2670.190000</v>
+        <v>-2670.19</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>68033.225723</v>
+        <v>68033.225722999996</v>
       </c>
       <c r="BY5" s="1">
         <v>18.898118</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2863.290000</v>
+        <v>2863.29</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3613.110000</v>
+        <v>-3613.11</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>68044.574227</v>
+        <v>68044.574227000005</v>
       </c>
       <c r="CD5" s="1">
-        <v>18.901271</v>
+        <v>18.901271000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4278.810000</v>
+        <v>4278.8100000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5860.890000</v>
+        <v>-5860.89</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>67873.033847</v>
+        <v>67873.033846999999</v>
       </c>
       <c r="B6" s="1">
         <v>18.853621</v>
       </c>
       <c r="C6" s="1">
-        <v>1241.960000</v>
+        <v>1241.96</v>
       </c>
       <c r="D6" s="1">
-        <v>-311.082000</v>
+        <v>-311.08199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>67883.100609</v>
+        <v>67883.100609000001</v>
       </c>
       <c r="G6" s="1">
         <v>18.856417</v>
       </c>
       <c r="H6" s="1">
-        <v>1268.680000</v>
+        <v>1268.68</v>
       </c>
       <c r="I6" s="1">
-        <v>-269.859000</v>
+        <v>-269.85899999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>67893.211556</v>
+        <v>67893.211555999995</v>
       </c>
       <c r="L6" s="1">
-        <v>18.859225</v>
+        <v>18.859224999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1306.310000</v>
+        <v>1306.31</v>
       </c>
       <c r="N6" s="1">
-        <v>-206.453000</v>
+        <v>-206.453</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>67904.394390</v>
+        <v>67904.394390000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>18.862332</v>
+        <v>18.862331999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="S6" s="1">
-        <v>-187.952000</v>
+        <v>-187.952</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>67914.953688</v>
+        <v>67914.953687999994</v>
       </c>
       <c r="V6" s="1">
-        <v>18.865265</v>
+        <v>18.865265000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.360000</v>
+        <v>1332.36</v>
       </c>
       <c r="X6" s="1">
-        <v>-174.150000</v>
+        <v>-174.15</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>67925.397482</v>
       </c>
       <c r="AA6" s="1">
-        <v>18.868166</v>
+        <v>18.868165999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.240000</v>
+        <v>1350.24</v>
       </c>
       <c r="AC6" s="1">
-        <v>-171.411000</v>
+        <v>-171.411</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>67935.597708</v>
+        <v>67935.597708000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>18.870999</v>
+        <v>18.870999000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.720000</v>
+        <v>1363.72</v>
       </c>
       <c r="AH6" s="1">
-        <v>-180.684000</v>
+        <v>-180.684</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>67946.084591</v>
+        <v>67946.084591000006</v>
       </c>
       <c r="AK6" s="1">
-        <v>18.873912</v>
+        <v>18.873912000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM6" s="1">
-        <v>-210.168000</v>
+        <v>-210.16800000000001</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>67957.003065</v>
+        <v>67957.003064999997</v>
       </c>
       <c r="AP6" s="1">
-        <v>18.876945</v>
+        <v>18.876944999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1407.200000</v>
+        <v>1407.2</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.399000</v>
+        <v>-253.399</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>67968.038513</v>
+        <v>67968.038513000007</v>
       </c>
       <c r="AU6" s="1">
         <v>18.880011</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.430000</v>
+        <v>1432.43</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.610000</v>
+        <v>-312.61</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>67979.054658</v>
+        <v>67979.054657999994</v>
       </c>
       <c r="AZ6" s="1">
-        <v>18.883071</v>
+        <v>18.883071000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1452.160000</v>
+        <v>1452.16</v>
       </c>
       <c r="BB6" s="1">
-        <v>-363.972000</v>
+        <v>-363.97199999999998</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>67989.571829</v>
+        <v>67989.571828999993</v>
       </c>
       <c r="BE6" s="1">
-        <v>18.885992</v>
+        <v>18.885992000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG6" s="1">
-        <v>-608.665000</v>
+        <v>-608.66499999999996</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>68000.667862</v>
+        <v>68000.667862000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>18.889074</v>
+        <v>18.889074000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1046.170000</v>
+        <v>-1046.17</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>68011.581304</v>
+        <v>68011.581304000007</v>
       </c>
       <c r="BO6" s="1">
-        <v>18.892106</v>
+        <v>18.892105999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1991.540000</v>
+        <v>1991.54</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1801.760000</v>
+        <v>-1801.76</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>68022.866777</v>
+        <v>68022.866777000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>18.895241</v>
+        <v>18.895240999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2382.560000</v>
+        <v>2382.56</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2670.080000</v>
+        <v>-2670.08</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>68033.648351</v>
+        <v>68033.648350999996</v>
       </c>
       <c r="BY6" s="1">
-        <v>18.898236</v>
+        <v>18.898236000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2863.020000</v>
+        <v>2863.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3613.020000</v>
+        <v>-3613.02</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>68045.114863</v>
+        <v>68045.114862999995</v>
       </c>
       <c r="CD6" s="1">
-        <v>18.901421</v>
+        <v>18.901420999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>4260.390000</v>
+        <v>4260.3900000000003</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5870.520000</v>
+        <v>-5870.52</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>67873.373567</v>
+        <v>67873.373567000002</v>
       </c>
       <c r="B7" s="1">
-        <v>18.853715</v>
+        <v>18.853715000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1241.930000</v>
+        <v>1241.93</v>
       </c>
       <c r="D7" s="1">
-        <v>-310.831000</v>
+        <v>-310.83100000000002</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>67883.788064</v>
+        <v>67883.788063999993</v>
       </c>
       <c r="G7" s="1">
-        <v>18.856608</v>
+        <v>18.856608000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.260000</v>
+        <v>1267.26</v>
       </c>
       <c r="I7" s="1">
-        <v>-268.934000</v>
+        <v>-268.93400000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>67893.897556</v>
+        <v>67893.897555999996</v>
       </c>
       <c r="L7" s="1">
         <v>18.859416</v>
       </c>
       <c r="M7" s="1">
-        <v>1306.380000</v>
+        <v>1306.3800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-206.581000</v>
+        <v>-206.58099999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>67904.741557</v>
+        <v>67904.741557000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>18.862428</v>
+        <v>18.862428000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1318.520000</v>
+        <v>1318.52</v>
       </c>
       <c r="S7" s="1">
-        <v>-188.020000</v>
+        <v>-188.02</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>67915.297911</v>
+        <v>67915.297911000001</v>
       </c>
       <c r="V7" s="1">
         <v>18.865361</v>
       </c>
       <c r="W7" s="1">
-        <v>1332.370000</v>
+        <v>1332.37</v>
       </c>
       <c r="X7" s="1">
-        <v>-174.216000</v>
+        <v>-174.21600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>67925.746634</v>
+        <v>67925.746633999996</v>
       </c>
       <c r="AA7" s="1">
-        <v>18.868263</v>
+        <v>18.868262999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.200000</v>
+        <v>1350.2</v>
       </c>
       <c r="AC7" s="1">
-        <v>-171.373000</v>
+        <v>-171.37299999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>67936.253921</v>
+        <v>67936.253920999996</v>
       </c>
       <c r="AF7" s="1">
-        <v>18.871182</v>
+        <v>18.871182000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.750000</v>
+        <v>1363.75</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.860000</v>
+        <v>-180.86</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>67946.752701</v>
+        <v>67946.752701000005</v>
       </c>
       <c r="AK7" s="1">
         <v>18.874098</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM7" s="1">
-        <v>-210.175000</v>
+        <v>-210.17500000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>67957.423631</v>
+        <v>67957.423630999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>18.877062</v>
+        <v>18.877061999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.407000</v>
+        <v>-253.40700000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>67968.405058</v>
+        <v>67968.405058000004</v>
       </c>
       <c r="AU7" s="1">
-        <v>18.880113</v>
+        <v>18.880113000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.410000</v>
+        <v>1432.41</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.635000</v>
+        <v>-312.63499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>67979.414293</v>
+        <v>67979.414292999994</v>
       </c>
       <c r="AZ7" s="1">
-        <v>18.883171</v>
+        <v>18.883171000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.015000</v>
+        <v>-364.01499999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>67989.934406</v>
       </c>
       <c r="BE7" s="1">
-        <v>18.886093</v>
+        <v>18.886092999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.990000</v>
+        <v>1538.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-608.683000</v>
+        <v>-608.68299999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>68001.078550</v>
+        <v>68001.078550000006</v>
       </c>
       <c r="BJ7" s="1">
-        <v>18.889188</v>
+        <v>18.889188000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.170000</v>
+        <v>1695.17</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1046.320000</v>
+        <v>-1046.32</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>68012.004391</v>
+        <v>68012.004390999995</v>
       </c>
       <c r="BO7" s="1">
-        <v>18.892223</v>
+        <v>18.892223000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1801.770000</v>
+        <v>-1801.77</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>68023.296312</v>
+        <v>68023.296312000006</v>
       </c>
       <c r="BT7" s="1">
-        <v>18.895360</v>
+        <v>18.89536</v>
       </c>
       <c r="BU7" s="1">
-        <v>2382.660000</v>
+        <v>2382.66</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2670.190000</v>
+        <v>-2670.19</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>68034.071898</v>
+        <v>68034.071897999995</v>
       </c>
       <c r="BY7" s="1">
         <v>18.898353</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2862.790000</v>
+        <v>2862.79</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3613.090000</v>
+        <v>-3613.09</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>68045.655962</v>
+        <v>68045.655962000004</v>
       </c>
       <c r="CD7" s="1">
-        <v>18.901571</v>
+        <v>18.901571000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4278.900000</v>
+        <v>4278.8999999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5875.310000</v>
+        <v>-5875.31</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>67874.053581</v>
       </c>
@@ -2023,2551 +2439,2551 @@
         <v>18.853904</v>
       </c>
       <c r="C8" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="D8" s="1">
-        <v>-310.731000</v>
+        <v>-310.73099999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>67884.134768</v>
+        <v>67884.134768000004</v>
       </c>
       <c r="G8" s="1">
-        <v>18.856704</v>
+        <v>18.856704000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1268.410000</v>
+        <v>1268.4100000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-269.489000</v>
+        <v>-269.48899999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>67894.249187</v>
+        <v>67894.249186999994</v>
       </c>
       <c r="L8" s="1">
-        <v>18.859514</v>
+        <v>18.859514000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.870000</v>
+        <v>1305.8699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-206.739000</v>
+        <v>-206.739</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>67905.093252</v>
+        <v>67905.093252000006</v>
       </c>
       <c r="Q8" s="1">
-        <v>18.862526</v>
+        <v>18.862525999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1318.460000</v>
+        <v>1318.46</v>
       </c>
       <c r="S8" s="1">
-        <v>-188.071000</v>
+        <v>-188.071</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>67915.951174</v>
+        <v>67915.951174000002</v>
       </c>
       <c r="V8" s="1">
-        <v>18.865542</v>
+        <v>18.865542000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X8" s="1">
-        <v>-174.039000</v>
+        <v>-174.03899999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>67926.402842</v>
+        <v>67926.402841999996</v>
       </c>
       <c r="AA8" s="1">
-        <v>18.868445</v>
+        <v>18.868445000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1350.270000</v>
+        <v>1350.27</v>
       </c>
       <c r="AC8" s="1">
-        <v>-171.422000</v>
+        <v>-171.422</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>67936.628364</v>
+        <v>67936.628364000004</v>
       </c>
       <c r="AF8" s="1">
-        <v>18.871286</v>
+        <v>18.871286000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.480000</v>
+        <v>1363.48</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.872000</v>
+        <v>-180.87200000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>67947.131646</v>
+        <v>67947.131645999994</v>
       </c>
       <c r="AK8" s="1">
-        <v>18.874203</v>
+        <v>18.874203000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.910000</v>
+        <v>1384.91</v>
       </c>
       <c r="AM8" s="1">
-        <v>-210.128000</v>
+        <v>-210.12799999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>67957.804573</v>
+        <v>67957.804573000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>18.877168</v>
+        <v>18.877168000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.416000</v>
+        <v>-253.416</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>67968.769153</v>
+        <v>67968.769153000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>18.880214</v>
+        <v>18.880213999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.610000</v>
+        <v>-312.61</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>67979.772710</v>
+        <v>67979.772710000005</v>
       </c>
       <c r="AZ8" s="1">
-        <v>18.883270</v>
+        <v>18.88327</v>
       </c>
       <c r="BA8" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB8" s="1">
-        <v>-363.985000</v>
+        <v>-363.98500000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>67990.356500</v>
+        <v>67990.356499999994</v>
       </c>
       <c r="BE8" s="1">
-        <v>18.886210</v>
+        <v>18.886209999999998</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG8" s="1">
-        <v>-608.669000</v>
+        <v>-608.66899999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>68001.445093</v>
+        <v>68001.445093000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>18.889290</v>
+        <v>18.889289999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1694.960000</v>
+        <v>1694.96</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>68012.399703</v>
+        <v>68012.399703000003</v>
       </c>
       <c r="BO8" s="1">
-        <v>18.892333</v>
+        <v>18.892333000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1991.490000</v>
+        <v>1991.49</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1801.690000</v>
+        <v>-1801.69</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>68023.707993</v>
+        <v>68023.707993000004</v>
       </c>
       <c r="BT8" s="1">
         <v>18.895474</v>
       </c>
       <c r="BU8" s="1">
-        <v>2382.330000</v>
+        <v>2382.33</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2670.440000</v>
+        <v>-2670.44</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>68034.520779</v>
+        <v>68034.520778999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>18.898478</v>
+        <v>18.898478000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2863.270000</v>
+        <v>2863.27</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3612.810000</v>
+        <v>-3612.81</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>68046.195114</v>
+        <v>68046.195114000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>18.901721</v>
+        <v>18.901720999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4268.360000</v>
+        <v>4268.3599999999997</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5859.980000</v>
+        <v>-5859.98</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>67874.401773</v>
+        <v>67874.401773000005</v>
       </c>
       <c r="B9" s="1">
-        <v>18.854000</v>
+        <v>18.853999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-310.840000</v>
+        <v>-310.83999999999997</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>67884.477505</v>
+        <v>67884.477505000003</v>
       </c>
       <c r="G9" s="1">
-        <v>18.856799</v>
+        <v>18.856798999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1268.660000</v>
+        <v>1268.6600000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-269.462000</v>
+        <v>-269.46199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>67894.595396</v>
+        <v>67894.595396000004</v>
       </c>
       <c r="L9" s="1">
-        <v>18.859610</v>
+        <v>18.85961</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.770000</v>
+        <v>1305.77</v>
       </c>
       <c r="N9" s="1">
-        <v>-206.289000</v>
+        <v>-206.28899999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>67905.749956</v>
       </c>
       <c r="Q9" s="1">
-        <v>18.862708</v>
+        <v>18.862708000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1318.390000</v>
+        <v>1318.39</v>
       </c>
       <c r="S9" s="1">
-        <v>-187.961000</v>
+        <v>-187.96100000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>67916.328429</v>
+        <v>67916.328429000001</v>
       </c>
       <c r="V9" s="1">
-        <v>18.865647</v>
+        <v>18.865646999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.180000</v>
+        <v>1332.18</v>
       </c>
       <c r="X9" s="1">
-        <v>-174.034000</v>
+        <v>-174.03399999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>67926.793191</v>
+        <v>67926.793191000004</v>
       </c>
       <c r="AA9" s="1">
         <v>18.868554</v>
       </c>
       <c r="AB9" s="1">
-        <v>1350.240000</v>
+        <v>1350.24</v>
       </c>
       <c r="AC9" s="1">
-        <v>-171.431000</v>
+        <v>-171.43100000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>67936.972586</v>
+        <v>67936.972586000004</v>
       </c>
       <c r="AF9" s="1">
         <v>18.871381</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.600000</v>
+        <v>1363.6</v>
       </c>
       <c r="AH9" s="1">
-        <v>-180.700000</v>
+        <v>-180.7</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>67947.481853</v>
+        <v>67947.481853000005</v>
       </c>
       <c r="AK9" s="1">
-        <v>18.874301</v>
+        <v>18.874300999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM9" s="1">
-        <v>-210.157000</v>
+        <v>-210.15700000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>67958.166142</v>
+        <v>67958.166142000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>18.877268</v>
+        <v>18.877268000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.140000</v>
+        <v>1407.14</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.416000</v>
+        <v>-253.416</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>67969.189728</v>
+        <v>67969.189727999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>18.880330</v>
+        <v>18.880330000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.612000</v>
+        <v>-312.61200000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>67980.202437</v>
       </c>
       <c r="AZ9" s="1">
-        <v>18.883390</v>
+        <v>18.883389999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1452.210000</v>
+        <v>1452.21</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.029000</v>
+        <v>-364.029</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>67990.658563</v>
+        <v>67990.658563000005</v>
       </c>
       <c r="BE9" s="1">
-        <v>18.886294</v>
+        <v>18.886293999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.930000</v>
+        <v>1538.93</v>
       </c>
       <c r="BG9" s="1">
-        <v>-608.693000</v>
+        <v>-608.69299999999998</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>68001.820036</v>
+        <v>68001.820036000005</v>
       </c>
       <c r="BJ9" s="1">
-        <v>18.889394</v>
+        <v>18.889393999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1046.230000</v>
+        <v>-1046.23</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>68012.821830</v>
+        <v>68012.821830000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>18.892451</v>
+        <v>18.892451000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1991.350000</v>
+        <v>1991.35</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1801.670000</v>
+        <v>-1801.67</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>68024.140007</v>
+        <v>68024.140006999995</v>
       </c>
       <c r="BT9" s="1">
-        <v>18.895594</v>
+        <v>18.895593999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.360000</v>
+        <v>2382.36</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2670.610000</v>
+        <v>-2670.61</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>68034.952329</v>
+        <v>68034.952329000007</v>
       </c>
       <c r="BY9" s="1">
         <v>18.898598</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2863.630000</v>
+        <v>2863.63</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3612.130000</v>
+        <v>-3612.13</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>68046.735289</v>
+        <v>68046.735289000004</v>
       </c>
       <c r="CD9" s="1">
         <v>18.901871</v>
       </c>
       <c r="CE9" s="1">
-        <v>4266.800000</v>
+        <v>4266.8</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5881.000000</v>
+        <v>-5881</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>67874.742525</v>
+        <v>67874.742524999994</v>
       </c>
       <c r="B10" s="1">
-        <v>18.854095</v>
+        <v>18.854095000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="D10" s="1">
-        <v>-310.584000</v>
+        <v>-310.584</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>67885.133215</v>
+        <v>67885.133214999994</v>
       </c>
       <c r="G10" s="1">
-        <v>18.856981</v>
+        <v>18.856981000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1268.730000</v>
+        <v>1268.73</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.845000</v>
+        <v>-268.84500000000003</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>67895.246933</v>
+        <v>67895.246933000002</v>
       </c>
       <c r="L10" s="1">
-        <v>18.859791</v>
+        <v>18.859791000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.890000</v>
+        <v>1305.8900000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-206.242000</v>
+        <v>-206.24199999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>67906.136803</v>
+        <v>67906.136803000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>18.862816</v>
+        <v>18.862815999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S10" s="1">
-        <v>-187.987000</v>
+        <v>-187.98699999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>67916.672325</v>
+        <v>67916.672325000007</v>
       </c>
       <c r="V10" s="1">
-        <v>18.865742</v>
+        <v>18.865742000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.420000</v>
+        <v>1332.42</v>
       </c>
       <c r="X10" s="1">
-        <v>-174.121000</v>
+        <v>-174.12100000000001</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>67927.141893</v>
+        <v>67927.141893000007</v>
       </c>
       <c r="AA10" s="1">
         <v>18.868651</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.070000</v>
+        <v>1350.07</v>
       </c>
       <c r="AC10" s="1">
-        <v>-171.318000</v>
+        <v>-171.31800000000001</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>67937.318826</v>
+        <v>67937.318826000002</v>
       </c>
       <c r="AF10" s="1">
-        <v>18.871477</v>
+        <v>18.871476999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.740000</v>
+        <v>1363.74</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.771000</v>
+        <v>-180.77099999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>67947.829553</v>
+        <v>67947.829553000003</v>
       </c>
       <c r="AK10" s="1">
-        <v>18.874397</v>
+        <v>18.874396999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM10" s="1">
-        <v>-210.164000</v>
+        <v>-210.16399999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>67958.585759</v>
+        <v>67958.585758999994</v>
       </c>
       <c r="AP10" s="1">
         <v>18.877385</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1407.190000</v>
+        <v>1407.19</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.425000</v>
+        <v>-253.42500000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>67969.498241</v>
+        <v>67969.498240999994</v>
       </c>
       <c r="AU10" s="1">
         <v>18.880416</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.380000</v>
+        <v>1432.38</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.625000</v>
+        <v>-312.625</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>67980.491074</v>
+        <v>67980.491074000005</v>
       </c>
       <c r="AZ10" s="1">
-        <v>18.883470</v>
+        <v>18.883469999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB10" s="1">
-        <v>-363.979000</v>
+        <v>-363.97899999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>67991.017668</v>
       </c>
       <c r="BE10" s="1">
-        <v>18.886394</v>
+        <v>18.886393999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG10" s="1">
-        <v>-608.680000</v>
+        <v>-608.67999999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>68002.195012</v>
+        <v>68002.195011999996</v>
       </c>
       <c r="BJ10" s="1">
-        <v>18.889499</v>
+        <v>18.889499000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.150000</v>
+        <v>1695.15</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1046.230000</v>
+        <v>-1046.23</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>68013.220582</v>
+        <v>68013.220581999994</v>
       </c>
       <c r="BO10" s="1">
-        <v>18.892561</v>
+        <v>18.892561000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1801.630000</v>
+        <v>-1801.63</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>68024.564582</v>
+        <v>68024.564582000006</v>
       </c>
       <c r="BT10" s="1">
         <v>18.895712</v>
       </c>
       <c r="BU10" s="1">
-        <v>2382.290000</v>
+        <v>2382.29</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2670.490000</v>
+        <v>-2670.49</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>68035.375912</v>
+        <v>68035.375912000003</v>
       </c>
       <c r="BY10" s="1">
         <v>18.898716</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2862.990000</v>
+        <v>2862.99</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3612.120000</v>
+        <v>-3612.12</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>68047.272953</v>
+        <v>68047.272953000007</v>
       </c>
       <c r="CD10" s="1">
-        <v>18.902020</v>
+        <v>18.90202</v>
       </c>
       <c r="CE10" s="1">
-        <v>4277.920000</v>
+        <v>4277.92</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5860.100000</v>
+        <v>-5860.1</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>67875.413644</v>
       </c>
       <c r="B11" s="1">
-        <v>18.854282</v>
+        <v>18.854282000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>1241.750000</v>
+        <v>1241.75</v>
       </c>
       <c r="D11" s="1">
-        <v>-310.740000</v>
+        <v>-310.74</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>67885.511167</v>
+        <v>67885.511167000004</v>
       </c>
       <c r="G11" s="1">
-        <v>18.857086</v>
+        <v>18.857085999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.010000</v>
+        <v>1268.01</v>
       </c>
       <c r="I11" s="1">
-        <v>-267.912000</v>
+        <v>-267.91199999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>67895.628065</v>
+        <v>67895.628064999997</v>
       </c>
       <c r="L11" s="1">
         <v>18.859897</v>
       </c>
       <c r="M11" s="1">
-        <v>1306.100000</v>
+        <v>1306.0999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-206.363000</v>
+        <v>-206.363</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>67906.486978</v>
+        <v>67906.486978000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>18.862913</v>
+        <v>18.862912999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1318.550000</v>
+        <v>1318.55</v>
       </c>
       <c r="S11" s="1">
-        <v>-187.993000</v>
+        <v>-187.99299999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>67917.013606</v>
+        <v>67917.013605999993</v>
       </c>
       <c r="V11" s="1">
-        <v>18.865837</v>
+        <v>18.865836999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X11" s="1">
-        <v>-174.154000</v>
+        <v>-174.154</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>67927.489576</v>
+        <v>67927.489576000007</v>
       </c>
       <c r="AA11" s="1">
-        <v>18.868747</v>
+        <v>18.868746999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.220000</v>
+        <v>1350.22</v>
       </c>
       <c r="AC11" s="1">
-        <v>-171.421000</v>
+        <v>-171.42099999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>67937.743113</v>
+        <v>67937.743113000004</v>
       </c>
       <c r="AF11" s="1">
-        <v>18.871595</v>
+        <v>18.871594999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.540000</v>
+        <v>1363.54</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.769000</v>
+        <v>-180.76900000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>67948.345392</v>
+        <v>67948.345392000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>18.874540</v>
+        <v>18.87454</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM11" s="1">
-        <v>-210.177000</v>
+        <v>-210.17699999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>67958.884882</v>
+        <v>67958.884881999998</v>
       </c>
       <c r="AP11" s="1">
         <v>18.877468</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.363000</v>
+        <v>-253.363</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>67969.862319</v>
+        <v>67969.862319000007</v>
       </c>
       <c r="AU11" s="1">
-        <v>18.880517</v>
+        <v>18.880517000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.410000</v>
+        <v>1432.41</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.589000</v>
+        <v>-312.589</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>67980.847219</v>
+        <v>67980.847219000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>18.883569</v>
+        <v>18.883569000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1452.160000</v>
+        <v>1452.16</v>
       </c>
       <c r="BB11" s="1">
-        <v>-363.984000</v>
+        <v>-363.98399999999998</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>67991.379251</v>
+        <v>67991.379251000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>18.886494</v>
+        <v>18.886493999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.980000</v>
+        <v>1538.98</v>
       </c>
       <c r="BG11" s="1">
-        <v>-608.657000</v>
+        <v>-608.65700000000004</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>68002.970756</v>
+        <v>68002.970755999995</v>
       </c>
       <c r="BJ11" s="1">
-        <v>18.889714</v>
+        <v>18.889714000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1694.940000</v>
+        <v>1694.94</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1046.200000</v>
+        <v>-1046.2</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>68013.643670</v>
+        <v>68013.643670000005</v>
       </c>
       <c r="BO11" s="1">
-        <v>18.892679</v>
+        <v>18.892679000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1991.410000</v>
+        <v>1991.41</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1801.540000</v>
+        <v>-1801.54</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>68024.975766</v>
+        <v>68024.975766000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>18.895827</v>
+        <v>18.895827000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2382.470000</v>
+        <v>2382.4699999999998</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2670.670000</v>
+        <v>-2670.67</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>68035.795497</v>
+        <v>68035.795496999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>18.898832</v>
+        <v>18.898831999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2862.650000</v>
+        <v>2862.65</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3612.600000</v>
+        <v>-3612.6</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>68047.811577</v>
       </c>
       <c r="CD11" s="1">
-        <v>18.902170</v>
+        <v>18.902170000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>4261.360000</v>
+        <v>4261.3599999999997</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5869.390000</v>
+        <v>-5869.39</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>67875.768251</v>
+        <v>67875.768251000001</v>
       </c>
       <c r="B12" s="1">
-        <v>18.854380</v>
+        <v>18.854379999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1241.730000</v>
+        <v>1241.73</v>
       </c>
       <c r="D12" s="1">
-        <v>-311.146000</v>
+        <v>-311.14600000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>67885.857375</v>
+        <v>67885.857375000007</v>
       </c>
       <c r="G12" s="1">
-        <v>18.857183</v>
+        <v>18.857182999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.760000</v>
+        <v>1267.76</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.542000</v>
+        <v>-268.54199999999997</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>67895.975760</v>
+        <v>67895.975760000001</v>
       </c>
       <c r="L12" s="1">
-        <v>18.859993</v>
+        <v>18.859992999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1306.040000</v>
+        <v>1306.04</v>
       </c>
       <c r="N12" s="1">
-        <v>-206.343000</v>
+        <v>-206.34299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>67906.832232</v>
+        <v>67906.832232000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>18.863009</v>
+        <v>18.863009000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>1318.470000</v>
+        <v>1318.47</v>
       </c>
       <c r="S12" s="1">
-        <v>-187.989000</v>
+        <v>-187.989</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>67917.439636</v>
+        <v>67917.439635999996</v>
       </c>
       <c r="V12" s="1">
         <v>18.865955</v>
       </c>
       <c r="W12" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X12" s="1">
-        <v>-174.020000</v>
+        <v>-174.02</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>67927.920103</v>
+        <v>67927.920102999997</v>
       </c>
       <c r="AA12" s="1">
-        <v>18.868867</v>
+        <v>18.868867000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.250000</v>
+        <v>1350.25</v>
       </c>
       <c r="AC12" s="1">
-        <v>-171.369000</v>
+        <v>-171.369</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>67938.023145</v>
+        <v>67938.023144999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>18.871673</v>
+        <v>18.871673000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.610000</v>
+        <v>1363.61</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.836000</v>
+        <v>-180.83600000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>67948.523915</v>
+        <v>67948.523914999998</v>
       </c>
       <c r="AK12" s="1">
-        <v>18.874590</v>
+        <v>18.874590000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.840000</v>
+        <v>1384.84</v>
       </c>
       <c r="AM12" s="1">
-        <v>-210.145000</v>
+        <v>-210.14500000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>67959.247421</v>
+        <v>67959.247420999993</v>
       </c>
       <c r="AP12" s="1">
-        <v>18.877569</v>
+        <v>18.877569000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.397000</v>
+        <v>-253.39699999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>67970.226366</v>
+        <v>67970.226366000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>18.880618</v>
+        <v>18.880617999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.420000</v>
+        <v>1432.42</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.595000</v>
+        <v>-312.59500000000003</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>67981.212255</v>
+        <v>67981.212255000006</v>
       </c>
       <c r="AZ12" s="1">
-        <v>18.883670</v>
+        <v>18.883669999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB12" s="1">
-        <v>-363.954000</v>
+        <v>-363.95400000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>67992.099938</v>
+        <v>67992.099937999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>18.886694</v>
+        <v>18.886693999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG12" s="1">
-        <v>-608.692000</v>
+        <v>-608.69200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>68003.345269</v>
+        <v>68003.345268999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>18.889818</v>
+        <v>18.889818000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1046.170000</v>
+        <v>-1046.17</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>68014.037529</v>
+        <v>68014.037528999994</v>
       </c>
       <c r="BO12" s="1">
-        <v>18.892788</v>
+        <v>18.892787999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1991.440000</v>
+        <v>1991.44</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1801.690000</v>
+        <v>-1801.69</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>68025.408773</v>
+        <v>68025.408773000003</v>
       </c>
       <c r="BT12" s="1">
         <v>18.895947</v>
       </c>
       <c r="BU12" s="1">
-        <v>2382.260000</v>
+        <v>2382.2600000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2670.560000</v>
+        <v>-2670.56</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>68036.530599</v>
+        <v>68036.530599000005</v>
       </c>
       <c r="BY12" s="1">
-        <v>18.899036</v>
+        <v>18.899035999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2863.310000</v>
+        <v>2863.31</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3612.170000</v>
+        <v>-3612.17</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>68048.649906</v>
+        <v>68048.649906000006</v>
       </c>
       <c r="CD12" s="1">
         <v>18.902403</v>
       </c>
       <c r="CE12" s="1">
-        <v>4273.750000</v>
+        <v>4273.75</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5861.610000</v>
+        <v>-5861.61</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>67876.111483</v>
+        <v>67876.111483000001</v>
       </c>
       <c r="B13" s="1">
-        <v>18.854475</v>
+        <v>18.854475000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1241.890000</v>
+        <v>1241.8900000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-310.902000</v>
+        <v>-310.90199999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>67886.201597</v>
+        <v>67886.201597000007</v>
       </c>
       <c r="G13" s="1">
-        <v>18.857278</v>
+        <v>18.857278000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1268.300000</v>
+        <v>1268.3</v>
       </c>
       <c r="I13" s="1">
-        <v>-269.055000</v>
+        <v>-269.05500000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>67896.611135</v>
+        <v>67896.611134999999</v>
       </c>
       <c r="L13" s="1">
-        <v>18.860170</v>
+        <v>18.86017</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.890000</v>
+        <v>1305.8900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-206.672000</v>
+        <v>-206.672</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>67907.251810</v>
+        <v>67907.251810000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>18.863126</v>
+        <v>18.863126000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1318.530000</v>
+        <v>1318.53</v>
       </c>
       <c r="S13" s="1">
-        <v>-188.079000</v>
+        <v>-188.07900000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>67917.705988</v>
+        <v>67917.705988000002</v>
       </c>
       <c r="V13" s="1">
-        <v>18.866029</v>
+        <v>18.866029000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.170000</v>
+        <v>1332.17</v>
       </c>
       <c r="X13" s="1">
-        <v>-174.040000</v>
+        <v>-174.04</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>67928.187478</v>
+        <v>67928.187478000007</v>
       </c>
       <c r="AA13" s="1">
         <v>18.868941</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.330000</v>
+        <v>1350.33</v>
       </c>
       <c r="AC13" s="1">
-        <v>-171.435000</v>
+        <v>-171.435</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>67938.367368</v>
+        <v>67938.367368000007</v>
       </c>
       <c r="AF13" s="1">
         <v>18.871769</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.540000</v>
+        <v>1363.54</v>
       </c>
       <c r="AH13" s="1">
-        <v>-180.629000</v>
+        <v>-180.62899999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>67948.874123</v>
+        <v>67948.874123000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>18.874687</v>
+        <v>18.874687000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM13" s="1">
-        <v>-210.119000</v>
+        <v>-210.119</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>67959.607021</v>
+        <v>67959.607021000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>18.877669</v>
+        <v>18.877669000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.418000</v>
+        <v>-253.41800000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>67970.956989</v>
+        <v>67970.956988999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>18.880821</v>
+        <v>18.880821000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.410000</v>
+        <v>1432.41</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.582000</v>
+        <v>-312.58199999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>67981.925999</v>
+        <v>67981.925998999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>18.883868</v>
       </c>
       <c r="BA13" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB13" s="1">
-        <v>-363.986000</v>
+        <v>-363.98599999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>67992.490289</v>
+        <v>67992.490288999994</v>
       </c>
       <c r="BE13" s="1">
         <v>18.886803</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG13" s="1">
-        <v>-608.650000</v>
+        <v>-608.65</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>68003.720608</v>
+        <v>68003.720608000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>18.889922</v>
+        <v>18.889921999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.060000</v>
+        <v>1695.06</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1046.270000</v>
+        <v>-1046.27</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>68014.459123</v>
+        <v>68014.459122999993</v>
       </c>
       <c r="BO13" s="1">
-        <v>18.892905</v>
+        <v>18.892904999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1991.430000</v>
+        <v>1991.43</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1801.490000</v>
+        <v>-1801.49</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>68026.154298</v>
+        <v>68026.154297999994</v>
       </c>
       <c r="BT13" s="1">
-        <v>18.896154</v>
+        <v>18.896153999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2381.870000</v>
+        <v>2381.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2670.750000</v>
+        <v>-2670.75</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>68036.638728</v>
+        <v>68036.638728000005</v>
       </c>
       <c r="BY13" s="1">
-        <v>18.899066</v>
+        <v>18.899066000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2863.470000</v>
+        <v>2863.47</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3612.350000</v>
+        <v>-3612.35</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>68048.892887</v>
+        <v>68048.892886999995</v>
       </c>
       <c r="CD13" s="1">
-        <v>18.902470</v>
+        <v>18.902470000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4276.230000</v>
+        <v>4276.2299999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5860.860000</v>
+        <v>-5860.86</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>67876.452760</v>
+        <v>67876.45276</v>
       </c>
       <c r="B14" s="1">
-        <v>18.854570</v>
+        <v>18.854569999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1241.910000</v>
+        <v>1241.9100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-310.964000</v>
+        <v>-310.964</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>67886.616285</v>
+        <v>67886.616284999996</v>
       </c>
       <c r="G14" s="1">
-        <v>18.857393</v>
+        <v>18.857392999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.390000</v>
+        <v>1268.3900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-269.019000</v>
+        <v>-269.01900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>67897.015377</v>
+        <v>67897.015377000003</v>
       </c>
       <c r="L14" s="1">
-        <v>18.860282</v>
+        <v>18.860282000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.870000</v>
+        <v>1305.8699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-206.602000</v>
+        <v>-206.602</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>67907.531059</v>
+        <v>67907.531059000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>18.863203</v>
+        <v>18.863202999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S14" s="1">
-        <v>-187.987000</v>
+        <v>-187.98699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>67918.048725</v>
+        <v>67918.048725000001</v>
       </c>
       <c r="V14" s="1">
         <v>18.866125</v>
       </c>
       <c r="W14" s="1">
-        <v>1332.190000</v>
+        <v>1332.19</v>
       </c>
       <c r="X14" s="1">
-        <v>-174.066000</v>
+        <v>-174.066</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>67928.535638</v>
+        <v>67928.535638000001</v>
       </c>
       <c r="AA14" s="1">
         <v>18.869038</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.320000</v>
+        <v>1350.32</v>
       </c>
       <c r="AC14" s="1">
-        <v>-171.387000</v>
+        <v>-171.387</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>67938.710600</v>
+        <v>67938.710600000006</v>
       </c>
       <c r="AF14" s="1">
-        <v>18.871864</v>
+        <v>18.871863999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.540000</v>
+        <v>1363.54</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.773000</v>
+        <v>-180.773</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>67949.570490</v>
+        <v>67949.570489999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>18.874881</v>
+        <v>18.874880999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM14" s="1">
-        <v>-210.142000</v>
+        <v>-210.142</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>67960.326715</v>
+        <v>67960.326715000003</v>
       </c>
       <c r="AP14" s="1">
         <v>18.877869</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1407.110000</v>
+        <v>1407.11</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.407000</v>
+        <v>-253.40700000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>67971.320541</v>
+        <v>67971.320540999994</v>
       </c>
       <c r="AU14" s="1">
-        <v>18.880922</v>
+        <v>18.880922000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.390000</v>
+        <v>1432.39</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.591000</v>
+        <v>-312.59100000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>67982.286140</v>
+        <v>67982.286139999997</v>
       </c>
       <c r="AZ14" s="1">
-        <v>18.883968</v>
+        <v>18.883967999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1452.180000</v>
+        <v>1452.18</v>
       </c>
       <c r="BB14" s="1">
-        <v>-363.994000</v>
+        <v>-363.99400000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>67992.850913</v>
+        <v>67992.850913000002</v>
       </c>
       <c r="BE14" s="1">
         <v>18.886903</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG14" s="1">
-        <v>-608.650000</v>
+        <v>-608.65</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>68004.408659</v>
+        <v>68004.408658999993</v>
       </c>
       <c r="BJ14" s="1">
-        <v>18.890114</v>
+        <v>18.890114000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1694.960000</v>
+        <v>1694.96</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1046.300000</v>
+        <v>-1046.3</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>68015.159475</v>
+        <v>68015.159474999993</v>
       </c>
       <c r="BO14" s="1">
-        <v>18.893100</v>
+        <v>18.8931</v>
       </c>
       <c r="BP14" s="1">
-        <v>1991.230000</v>
+        <v>1991.23</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1801.510000</v>
+        <v>-1801.51</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>68026.283717</v>
+        <v>68026.283716999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>18.896190</v>
+        <v>18.896190000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2382.090000</v>
+        <v>2382.09</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2670.980000</v>
+        <v>-2670.98</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>68037.076201</v>
+        <v>68037.076201000003</v>
       </c>
       <c r="BY14" s="1">
-        <v>18.899188</v>
+        <v>18.899187999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2863.020000</v>
+        <v>2863.02</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3612.300000</v>
+        <v>-3612.3</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>68049.412662</v>
+        <v>68049.412662000002</v>
       </c>
       <c r="CD14" s="1">
-        <v>18.902615</v>
+        <v>18.902615000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>4259.480000</v>
+        <v>4259.4799999999996</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5863.570000</v>
+        <v>-5863.57</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>67876.873866</v>
+        <v>67876.873865999994</v>
       </c>
       <c r="B15" s="1">
-        <v>18.854687</v>
+        <v>18.854686999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1241.770000</v>
+        <v>1241.77</v>
       </c>
       <c r="D15" s="1">
-        <v>-311.080000</v>
+        <v>-311.08</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>67886.893054</v>
       </c>
       <c r="G15" s="1">
-        <v>18.857470</v>
+        <v>18.857469999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.140000</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-269.291000</v>
+        <v>-269.291</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>67897.361118</v>
+        <v>67897.361118000001</v>
       </c>
       <c r="L15" s="1">
-        <v>18.860378</v>
+        <v>18.860378000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1306.050000</v>
+        <v>1306.05</v>
       </c>
       <c r="N15" s="1">
-        <v>-206.565000</v>
+        <v>-206.565</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>67907.880737</v>
+        <v>67907.880736999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>18.863300</v>
+        <v>18.863299999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S15" s="1">
-        <v>-187.988000</v>
+        <v>-187.988</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>67918.392452</v>
       </c>
       <c r="V15" s="1">
-        <v>18.866220</v>
+        <v>18.866219999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1332.140000</v>
+        <v>1332.14</v>
       </c>
       <c r="X15" s="1">
-        <v>-174.032000</v>
+        <v>-174.03200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>67928.884325</v>
+        <v>67928.884325000006</v>
       </c>
       <c r="AA15" s="1">
         <v>18.869135</v>
       </c>
       <c r="AB15" s="1">
-        <v>1350.240000</v>
+        <v>1350.24</v>
       </c>
       <c r="AC15" s="1">
-        <v>-171.325000</v>
+        <v>-171.32499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>67939.399047</v>
+        <v>67939.399046999999</v>
       </c>
       <c r="AF15" s="1">
         <v>18.872055</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.480000</v>
+        <v>1363.48</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.735000</v>
+        <v>-180.73500000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>67949.921145</v>
       </c>
       <c r="AK15" s="1">
-        <v>18.874978</v>
+        <v>18.874977999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.880000</v>
+        <v>1384.88</v>
       </c>
       <c r="AM15" s="1">
-        <v>-210.154000</v>
+        <v>-210.154</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>67960.688795</v>
+        <v>67960.688794999995</v>
       </c>
       <c r="AP15" s="1">
         <v>18.877969</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.170000</v>
+        <v>1407.17</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.380000</v>
+        <v>-253.38</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>67971.687581</v>
+        <v>67971.687581000006</v>
       </c>
       <c r="AU15" s="1">
         <v>18.881024</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.618000</v>
+        <v>-312.61799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>67982.645199</v>
+        <v>67982.645199000006</v>
       </c>
       <c r="AZ15" s="1">
-        <v>18.884068</v>
+        <v>18.884067999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1452.180000</v>
+        <v>1452.18</v>
       </c>
       <c r="BB15" s="1">
-        <v>-363.965000</v>
+        <v>-363.96499999999997</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>67993.531392</v>
+        <v>67993.531392000004</v>
       </c>
       <c r="BE15" s="1">
-        <v>18.887092</v>
+        <v>18.887091999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.940000</v>
+        <v>1538.94</v>
       </c>
       <c r="BG15" s="1">
-        <v>-608.645000</v>
+        <v>-608.64499999999998</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>68004.878408</v>
+        <v>68004.878408000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>18.890244</v>
+        <v>18.890243999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1694.970000</v>
+        <v>1694.97</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1046.220000</v>
+        <v>-1046.22</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>68015.276995</v>
+        <v>68015.276994999993</v>
       </c>
       <c r="BO15" s="1">
-        <v>18.893132</v>
+        <v>18.893132000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1991.260000</v>
+        <v>1991.26</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1801.440000</v>
+        <v>-1801.44</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>68026.694900</v>
+        <v>68026.694900000002</v>
       </c>
       <c r="BT15" s="1">
-        <v>18.896304</v>
+        <v>18.896304000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>2381.530000</v>
+        <v>2381.5300000000002</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2671.120000</v>
+        <v>-2671.12</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>68037.533477</v>
+        <v>68037.533477000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>18.899315</v>
+        <v>18.899315000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2862.100000</v>
+        <v>2862.1</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3612.240000</v>
+        <v>-3612.24</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>68049.928503</v>
+        <v>68049.928503000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>18.902758</v>
+        <v>18.902757999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>4265.170000</v>
+        <v>4265.17</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5857.340000</v>
+        <v>-5857.34</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>67877.154112</v>
+        <v>67877.154112000004</v>
       </c>
       <c r="B16" s="1">
         <v>18.854765</v>
       </c>
       <c r="C16" s="1">
-        <v>1241.840000</v>
+        <v>1241.8399999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-311.097000</v>
+        <v>-311.09699999999998</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>67887.234797</v>
+        <v>67887.234796999997</v>
       </c>
       <c r="G16" s="1">
-        <v>18.857565</v>
+        <v>18.857565000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I16" s="1">
-        <v>-269.964000</v>
+        <v>-269.964</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>67897.706800</v>
+        <v>67897.7068</v>
       </c>
       <c r="L16" s="1">
         <v>18.860474</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.790000</v>
+        <v>1305.79</v>
       </c>
       <c r="N16" s="1">
-        <v>-206.352000</v>
+        <v>-206.352</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>67908.226449</v>
+        <v>67908.226448999994</v>
       </c>
       <c r="Q16" s="1">
-        <v>18.863396</v>
+        <v>18.863396000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S16" s="1">
-        <v>-187.929000</v>
+        <v>-187.929</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>67919.078915</v>
+        <v>67919.078915000006</v>
       </c>
       <c r="V16" s="1">
-        <v>18.866411</v>
+        <v>18.866410999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.430000</v>
+        <v>1332.43</v>
       </c>
       <c r="X16" s="1">
-        <v>-174.162000</v>
+        <v>-174.16200000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>67929.582728</v>
+        <v>67929.582727999994</v>
       </c>
       <c r="AA16" s="1">
         <v>18.869329</v>
       </c>
       <c r="AB16" s="1">
-        <v>1350.170000</v>
+        <v>1350.17</v>
       </c>
       <c r="AC16" s="1">
-        <v>-171.399000</v>
+        <v>-171.399</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>67939.742248</v>
+        <v>67939.742247999995</v>
       </c>
       <c r="AF16" s="1">
-        <v>18.872151</v>
+        <v>18.872150999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.430000</v>
+        <v>1363.43</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.685000</v>
+        <v>-180.685</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>67950.269337</v>
+        <v>67950.269337000005</v>
       </c>
       <c r="AK16" s="1">
-        <v>18.875075</v>
+        <v>18.875074999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM16" s="1">
-        <v>-210.182000</v>
+        <v>-210.18199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>67961.047930</v>
+        <v>67961.047930000001</v>
       </c>
       <c r="AP16" s="1">
         <v>18.878069</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.200000</v>
+        <v>1407.2</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>67972.356189</v>
+        <v>67972.356188999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>18.881210</v>
+        <v>18.881209999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.380000</v>
+        <v>1432.38</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.605000</v>
+        <v>-312.60500000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>67983.077750</v>
+        <v>67983.077749999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>18.884188</v>
+        <v>18.884188000000002</v>
       </c>
       <c r="BA16" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.005000</v>
+        <v>-364.005</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>67993.963934</v>
+        <v>67993.963933999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>18.887212</v>
+        <v>18.887212000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG16" s="1">
-        <v>-608.629000</v>
+        <v>-608.62900000000002</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>68005.266737</v>
+        <v>68005.266736999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>18.890352</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.000000</v>
+        <v>1695</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1045.980000</v>
+        <v>-1045.98</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>68015.699586</v>
+        <v>68015.699586000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>18.893250</v>
+        <v>18.893249999999998</v>
       </c>
       <c r="BP16" s="1">
-        <v>1991.310000</v>
+        <v>1991.31</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1801.500000</v>
+        <v>-1801.5</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>68027.123476</v>
+        <v>68027.123475999993</v>
       </c>
       <c r="BT16" s="1">
-        <v>18.896423</v>
+        <v>18.896422999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2381.680000</v>
+        <v>2381.6799999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2671.070000</v>
+        <v>-2671.07</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>68037.976901</v>
+        <v>68037.976901000002</v>
       </c>
       <c r="BY16" s="1">
         <v>18.899438</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2863.170000</v>
+        <v>2863.17</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3611.910000</v>
+        <v>-3611.91</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>68050.483263</v>
+        <v>68050.483263000002</v>
       </c>
       <c r="CD16" s="1">
-        <v>18.902912</v>
+        <v>18.902912000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4278.030000</v>
+        <v>4278.03</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5862.620000</v>
+        <v>-5862.62</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>67877.492841</v>
+        <v>67877.492840999999</v>
       </c>
       <c r="B17" s="1">
-        <v>18.854859</v>
+        <v>18.854859000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1241.790000</v>
+        <v>1241.79</v>
       </c>
       <c r="D17" s="1">
-        <v>-311.041000</v>
+        <v>-311.041</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>67887.581467</v>
+        <v>67887.581466999996</v>
       </c>
       <c r="G17" s="1">
-        <v>18.857662</v>
+        <v>18.857662000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1268.380000</v>
+        <v>1268.3800000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-269.371000</v>
+        <v>-269.37099999999998</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>67898.396766</v>
+        <v>67898.396766000005</v>
       </c>
       <c r="L17" s="1">
-        <v>18.860666</v>
+        <v>18.860665999999998</v>
       </c>
       <c r="M17" s="1">
-        <v>1306.020000</v>
+        <v>1306.02</v>
       </c>
       <c r="N17" s="1">
-        <v>-206.246000</v>
+        <v>-206.24600000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>67908.925844</v>
+        <v>67908.925843999998</v>
       </c>
       <c r="Q17" s="1">
         <v>18.863591</v>
       </c>
       <c r="R17" s="1">
-        <v>1318.500000</v>
+        <v>1318.5</v>
       </c>
       <c r="S17" s="1">
-        <v>-187.997000</v>
+        <v>-187.99700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>67919.424131</v>
+        <v>67919.424131000007</v>
       </c>
       <c r="V17" s="1">
-        <v>18.866507</v>
+        <v>18.866506999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.300000</v>
+        <v>1332.3</v>
       </c>
       <c r="X17" s="1">
-        <v>-174.209000</v>
+        <v>-174.209</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>67929.928937</v>
+        <v>67929.928937000004</v>
       </c>
       <c r="AA17" s="1">
         <v>18.869425</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC17" s="1">
-        <v>-171.413000</v>
+        <v>-171.41300000000001</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>67940.083990</v>
+        <v>67940.083989999999</v>
       </c>
       <c r="AF17" s="1">
-        <v>18.872246</v>
+        <v>18.872246000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.645000</v>
+        <v>-180.64500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>67950.923592</v>
+        <v>67950.923592000006</v>
       </c>
       <c r="AK17" s="1">
-        <v>18.875257</v>
+        <v>18.875257000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.890000</v>
+        <v>1384.89</v>
       </c>
       <c r="AM17" s="1">
-        <v>-210.143000</v>
+        <v>-210.143</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>67961.722457</v>
+        <v>67961.722456999996</v>
       </c>
       <c r="AP17" s="1">
         <v>18.878256</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1407.190000</v>
+        <v>1407.19</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.373000</v>
+        <v>-253.37299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>67972.781754</v>
+        <v>67972.781753999996</v>
       </c>
       <c r="AU17" s="1">
         <v>18.881328</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.410000</v>
+        <v>1432.41</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.597000</v>
+        <v>-312.59699999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>67983.363406</v>
+        <v>67983.363406000004</v>
       </c>
       <c r="AZ17" s="1">
-        <v>18.884268</v>
+        <v>18.884267999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB17" s="1">
-        <v>-363.948000</v>
+        <v>-363.94799999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>67994.325519</v>
+        <v>67994.325519000005</v>
       </c>
       <c r="BE17" s="1">
-        <v>18.887313</v>
+        <v>18.887312999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.960000</v>
+        <v>1538.96</v>
       </c>
       <c r="BG17" s="1">
-        <v>-608.625000</v>
+        <v>-608.625</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>68005.642220</v>
+        <v>68005.642219999994</v>
       </c>
       <c r="BJ17" s="1">
         <v>18.890456</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.100000</v>
+        <v>1695.1</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1046.240000</v>
+        <v>-1046.24</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>68016.097378</v>
+        <v>68016.097378000006</v>
       </c>
       <c r="BO17" s="1">
-        <v>18.893360</v>
+        <v>18.893360000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1991.140000</v>
+        <v>1991.14</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1801.450000</v>
+        <v>-1801.45</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>68027.539588</v>
       </c>
       <c r="BT17" s="1">
-        <v>18.896539</v>
+        <v>18.896539000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2381.620000</v>
+        <v>2381.62</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2671.100000</v>
+        <v>-2671.1</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>68038.439669</v>
+        <v>68038.439668999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>18.899567</v>
+        <v>18.899567000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2863.510000</v>
+        <v>2863.51</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3612.280000</v>
+        <v>-3612.28</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>68051.041029</v>
@@ -4576,2072 +4992,2072 @@
         <v>18.903067</v>
       </c>
       <c r="CE17" s="1">
-        <v>4261.160000</v>
+        <v>4261.16</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5860.340000</v>
+        <v>-5860.34</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>67877.834585</v>
+        <v>67877.834585000004</v>
       </c>
       <c r="B18" s="1">
-        <v>18.854954</v>
+        <v>18.854953999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.120000</v>
+        <v>1242.1199999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.905000</v>
+        <v>-310.90499999999997</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>67888.274876</v>
+        <v>67888.274875999996</v>
       </c>
       <c r="G18" s="1">
         <v>18.857854</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.380000</v>
+        <v>1269.3800000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.571000</v>
+        <v>-268.57100000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>67898.742446</v>
+        <v>67898.742446000004</v>
       </c>
       <c r="L18" s="1">
-        <v>18.860762</v>
+        <v>18.860762000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.830000</v>
+        <v>1305.83</v>
       </c>
       <c r="N18" s="1">
-        <v>-206.489000</v>
+        <v>-206.489</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>67909.273509</v>
+        <v>67909.273509000006</v>
       </c>
       <c r="Q18" s="1">
-        <v>18.863687</v>
+        <v>18.863686999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>1318.480000</v>
+        <v>1318.48</v>
       </c>
       <c r="S18" s="1">
-        <v>-188.066000</v>
+        <v>-188.066</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>67919.766865</v>
+        <v>67919.766864999998</v>
       </c>
       <c r="V18" s="1">
         <v>18.866602</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.210000</v>
+        <v>1332.21</v>
       </c>
       <c r="X18" s="1">
-        <v>-173.995000</v>
+        <v>-173.995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>67930.352519</v>
+        <v>67930.352518999993</v>
       </c>
       <c r="AA18" s="1">
-        <v>18.869542</v>
+        <v>18.869541999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC18" s="1">
-        <v>-171.292000</v>
+        <v>-171.292</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>67940.740735</v>
+        <v>67940.740734999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>18.872428</v>
+        <v>18.872427999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.805000</v>
+        <v>-180.80500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>67951.314407</v>
+        <v>67951.314406999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>18.875365</v>
+        <v>18.875364999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM18" s="1">
-        <v>-210.127000</v>
+        <v>-210.12700000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>67962.159465</v>
+        <v>67962.159465000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>18.878378</v>
+        <v>18.878378000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.140000</v>
+        <v>1407.14</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.391000</v>
+        <v>-253.39099999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>67973.144363</v>
+        <v>67973.144362999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>18.881429</v>
+        <v>18.881429000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.410000</v>
+        <v>1432.41</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.577000</v>
+        <v>-312.577</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>67983.720065</v>
+        <v>67983.720065000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>18.884367</v>
+        <v>18.884367000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1452.170000</v>
+        <v>1452.17</v>
       </c>
       <c r="BB18" s="1">
-        <v>-363.965000</v>
+        <v>-363.96499999999997</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>67994.687070</v>
+        <v>67994.68707</v>
       </c>
       <c r="BE18" s="1">
-        <v>18.887413</v>
+        <v>18.887412999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.641000</v>
+        <v>-608.64099999999996</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>68006.067279</v>
+        <v>68006.067278999995</v>
       </c>
       <c r="BJ18" s="1">
-        <v>18.890574</v>
+        <v>18.890574000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1694.930000</v>
+        <v>1694.93</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1046.190000</v>
+        <v>-1046.19</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>68016.517489</v>
+        <v>68016.517489000005</v>
       </c>
       <c r="BO18" s="1">
-        <v>18.893477</v>
+        <v>18.893477000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1991.200000</v>
+        <v>1991.2</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1801.270000</v>
+        <v>-1801.27</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>68027.953250</v>
+        <v>68027.953250000006</v>
       </c>
       <c r="BT18" s="1">
-        <v>18.896654</v>
+        <v>18.896654000000002</v>
       </c>
       <c r="BU18" s="1">
-        <v>2381.390000</v>
+        <v>2381.39</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2671.310000</v>
+        <v>-2671.31</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>68038.886599</v>
+        <v>68038.886599000005</v>
       </c>
       <c r="BY18" s="1">
-        <v>18.899691</v>
+        <v>18.899691000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2862.520000</v>
+        <v>2862.52</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3612.490000</v>
+        <v>-3612.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>68051.531075</v>
+        <v>68051.531075000006</v>
       </c>
       <c r="CD18" s="1">
-        <v>18.903203</v>
+        <v>18.903203000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>4261.350000</v>
+        <v>4261.3500000000004</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5877.800000</v>
+        <v>-5877.8</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>67878.517111</v>
+        <v>67878.517110999994</v>
       </c>
       <c r="B19" s="1">
-        <v>18.855144</v>
+        <v>18.855143999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.070000</v>
+        <v>1242.07</v>
       </c>
       <c r="D19" s="1">
-        <v>-310.773000</v>
+        <v>-310.77300000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>67888.617155</v>
       </c>
       <c r="G19" s="1">
-        <v>18.857949</v>
+        <v>18.857949000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1268.470000</v>
+        <v>1268.47</v>
       </c>
       <c r="I19" s="1">
-        <v>-268.128000</v>
+        <v>-268.12799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>67899.086669</v>
+        <v>67899.086668999997</v>
       </c>
       <c r="L19" s="1">
-        <v>18.860857</v>
+        <v>18.860856999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.880000</v>
+        <v>1305.8800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-206.501000</v>
+        <v>-206.501</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>67909.623184</v>
+        <v>67909.623183999996</v>
       </c>
       <c r="Q19" s="1">
-        <v>18.863784</v>
+        <v>18.863783999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>1318.420000</v>
+        <v>1318.42</v>
       </c>
       <c r="S19" s="1">
-        <v>-188.019000</v>
+        <v>-188.01900000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>67920.413152</v>
+        <v>67920.413151999994</v>
       </c>
       <c r="V19" s="1">
         <v>18.866781</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.320000</v>
+        <v>1332.32</v>
       </c>
       <c r="X19" s="1">
-        <v>-174.081000</v>
+        <v>-174.08099999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>67930.831620</v>
+        <v>67930.831619999997</v>
       </c>
       <c r="AA19" s="1">
-        <v>18.869675</v>
+        <v>18.869675000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.090000</v>
+        <v>1350.09</v>
       </c>
       <c r="AC19" s="1">
-        <v>-171.322000</v>
+        <v>-171.322</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>67941.116165</v>
+        <v>67941.116164999999</v>
       </c>
       <c r="AF19" s="1">
         <v>18.872532</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.370000</v>
+        <v>1363.37</v>
       </c>
       <c r="AH19" s="1">
-        <v>-180.606000</v>
+        <v>-180.60599999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>67951.664583</v>
+        <v>67951.664583000005</v>
       </c>
       <c r="AK19" s="1">
-        <v>18.875462</v>
+        <v>18.875461999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM19" s="1">
-        <v>-210.101000</v>
+        <v>-210.101</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>67962.518042</v>
+        <v>67962.518041999996</v>
       </c>
       <c r="AP19" s="1">
         <v>18.878477</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1407.180000</v>
+        <v>1407.18</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.401000</v>
+        <v>-253.40100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>67973.497482</v>
+        <v>67973.497482000006</v>
       </c>
       <c r="AU19" s="1">
-        <v>18.881527</v>
+        <v>18.881526999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.597000</v>
+        <v>-312.59699999999998</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>67984.143153</v>
+        <v>67984.143152999997</v>
       </c>
       <c r="AZ19" s="1">
         <v>18.884484</v>
       </c>
       <c r="BA19" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB19" s="1">
-        <v>-363.992000</v>
+        <v>-363.99200000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>67995.102751</v>
+        <v>67995.102750999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>18.887529</v>
+        <v>18.887529000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG19" s="1">
-        <v>-608.631000</v>
+        <v>-608.63099999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>68006.395136</v>
+        <v>68006.395136000006</v>
       </c>
       <c r="BJ19" s="1">
-        <v>18.890665</v>
+        <v>18.890664999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.050000</v>
+        <v>1695.05</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1046.070000</v>
+        <v>-1046.07</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>68016.914289</v>
+        <v>68016.914288999993</v>
       </c>
       <c r="BO19" s="1">
         <v>18.893587</v>
       </c>
       <c r="BP19" s="1">
-        <v>1991.350000</v>
+        <v>1991.35</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1801.440000</v>
+        <v>-1801.44</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>68028.366419</v>
+        <v>68028.366418999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>18.896768</v>
+        <v>18.896768000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2381.110000</v>
+        <v>2381.11</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2671.170000</v>
+        <v>-2671.17</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>68039.341891</v>
+        <v>68039.341891000004</v>
       </c>
       <c r="BY19" s="1">
-        <v>18.899817</v>
+        <v>18.899816999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2862.750000</v>
+        <v>2862.75</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3612.550000</v>
+        <v>-3612.55</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>68052.160994</v>
+        <v>68052.160994000005</v>
       </c>
       <c r="CD19" s="1">
         <v>18.903378</v>
       </c>
       <c r="CE19" s="1">
-        <v>4278.120000</v>
+        <v>4278.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5875.650000</v>
+        <v>-5875.65</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>67878.874199</v>
+        <v>67878.874198999998</v>
       </c>
       <c r="B20" s="1">
-        <v>18.855243</v>
+        <v>18.855243000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1241.740000</v>
+        <v>1241.74</v>
       </c>
       <c r="D20" s="1">
-        <v>-311.342000</v>
+        <v>-311.34199999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>67888.966794</v>
+        <v>67888.966794000007</v>
       </c>
       <c r="G20" s="1">
-        <v>18.858046</v>
+        <v>18.858046000000002</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.270000</v>
+        <v>1269.27</v>
       </c>
       <c r="I20" s="1">
-        <v>-268.494000</v>
+        <v>-268.49400000000003</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>67899.752299</v>
       </c>
       <c r="L20" s="1">
-        <v>18.861042</v>
+        <v>18.861042000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.890000</v>
+        <v>1305.8900000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-206.393000</v>
+        <v>-206.393</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>67910.280910</v>
+        <v>67910.280910000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>18.863967</v>
+        <v>18.863966999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S20" s="1">
-        <v>-188.027000</v>
+        <v>-188.02699999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>67920.795568</v>
+        <v>67920.795568000001</v>
       </c>
       <c r="V20" s="1">
-        <v>18.866888</v>
+        <v>18.866887999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.100000</v>
+        <v>1332.1</v>
       </c>
       <c r="X20" s="1">
-        <v>-173.965000</v>
+        <v>-173.965</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>67930.975459</v>
+        <v>67930.975458999994</v>
       </c>
       <c r="AA20" s="1">
-        <v>18.869715</v>
+        <v>18.869714999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1350.260000</v>
+        <v>1350.26</v>
       </c>
       <c r="AC20" s="1">
-        <v>-171.248000</v>
+        <v>-171.24799999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>67941.457910</v>
+        <v>67941.457909999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>18.872627</v>
+        <v>18.872627000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.700000</v>
+        <v>1363.7</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.771000</v>
+        <v>-180.77099999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>67952.014264</v>
+        <v>67952.014263999998</v>
       </c>
       <c r="AK20" s="1">
-        <v>18.875560</v>
+        <v>18.87556</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM20" s="1">
-        <v>-210.112000</v>
+        <v>-210.11199999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>67962.877672</v>
+        <v>67962.877672000002</v>
       </c>
       <c r="AP20" s="1">
         <v>18.878577</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1407.190000</v>
+        <v>1407.19</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.357000</v>
+        <v>-253.357</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>67973.930026</v>
+        <v>67973.930026000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>18.881647</v>
+        <v>18.881647000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.600000</v>
+        <v>-312.60000000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>67984.438899</v>
+        <v>67984.438899000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>18.884566</v>
       </c>
       <c r="BA20" s="1">
-        <v>1452.170000</v>
+        <v>1452.17</v>
       </c>
       <c r="BB20" s="1">
-        <v>-363.971000</v>
+        <v>-363.971</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>67995.408750</v>
+        <v>67995.408750000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>18.887614</v>
+        <v>18.887613999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG20" s="1">
-        <v>-608.586000</v>
+        <v>-608.58600000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>68006.775071</v>
+        <v>68006.775070999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>18.890771</v>
+        <v>18.890771000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.110000</v>
+        <v>1695.11</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1046.180000</v>
+        <v>-1046.18</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>68017.348322</v>
+        <v>68017.348322000005</v>
       </c>
       <c r="BO20" s="1">
         <v>18.893708</v>
       </c>
       <c r="BP20" s="1">
-        <v>1991.220000</v>
+        <v>1991.22</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1801.360000</v>
+        <v>-1801.36</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>68028.778107</v>
+        <v>68028.778107000006</v>
       </c>
       <c r="BT20" s="1">
-        <v>18.896883</v>
+        <v>18.896882999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2380.870000</v>
+        <v>2380.87</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2671.240000</v>
+        <v>-2671.24</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>68039.792258</v>
+        <v>68039.792258000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>18.899942</v>
+        <v>18.899941999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2863.440000</v>
+        <v>2863.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3611.620000</v>
+        <v>-3611.62</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>68052.568705</v>
+        <v>68052.568704999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>18.903491</v>
+        <v>18.903490999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4271.190000</v>
+        <v>4271.1899999999996</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5877.750000</v>
+        <v>-5877.75</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>67879.518044</v>
+        <v>67879.518043999997</v>
       </c>
       <c r="B21" s="1">
-        <v>18.855422</v>
+        <v>18.855422000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>1241.950000</v>
+        <v>1241.95</v>
       </c>
       <c r="D21" s="1">
-        <v>-311.070000</v>
+        <v>-311.07</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>67889.623001</v>
       </c>
       <c r="G21" s="1">
-        <v>18.858229</v>
+        <v>18.858229000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.400000</v>
+        <v>1268.4000000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-269.078000</v>
+        <v>-269.07799999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>67900.125787</v>
+        <v>67900.125786999997</v>
       </c>
       <c r="L21" s="1">
-        <v>18.861146</v>
+        <v>18.861146000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1306.020000</v>
+        <v>1306.02</v>
       </c>
       <c r="N21" s="1">
-        <v>-206.462000</v>
+        <v>-206.46199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>67910.669246</v>
+        <v>67910.669246000005</v>
       </c>
       <c r="Q21" s="1">
         <v>18.864075</v>
       </c>
       <c r="R21" s="1">
-        <v>1318.450000</v>
+        <v>1318.45</v>
       </c>
       <c r="S21" s="1">
-        <v>-187.937000</v>
+        <v>-187.93700000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>67921.141281</v>
+        <v>67921.141281000004</v>
       </c>
       <c r="V21" s="1">
-        <v>18.866984</v>
+        <v>18.866983999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.050000</v>
+        <v>1332.05</v>
       </c>
       <c r="X21" s="1">
-        <v>-173.987000</v>
+        <v>-173.98699999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>67931.325634</v>
+        <v>67931.325633999993</v>
       </c>
       <c r="AA21" s="1">
-        <v>18.869813</v>
+        <v>18.869813000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC21" s="1">
-        <v>-171.317000</v>
+        <v>-171.31700000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>67941.803124</v>
+        <v>67941.803123999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>18.872723</v>
+        <v>18.872723000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.540000</v>
+        <v>1363.54</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.863000</v>
+        <v>-180.863</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>67952.435367</v>
+        <v>67952.435366999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>18.875676</v>
+        <v>18.875675999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.880000</v>
+        <v>1384.88</v>
       </c>
       <c r="AM21" s="1">
-        <v>-210.143000</v>
+        <v>-210.143</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>67963.305721</v>
+        <v>67963.305720999997</v>
       </c>
       <c r="AP21" s="1">
-        <v>18.878696</v>
+        <v>18.878696000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.415000</v>
+        <v>-253.41499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>67974.238009</v>
+        <v>67974.238008999993</v>
       </c>
       <c r="AU21" s="1">
-        <v>18.881733</v>
+        <v>18.881733000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.390000</v>
+        <v>1432.39</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.573000</v>
+        <v>-312.57299999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>67984.796845</v>
+        <v>67984.796845000004</v>
       </c>
       <c r="AZ21" s="1">
-        <v>18.884666</v>
+        <v>18.884665999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB21" s="1">
-        <v>-363.947000</v>
+        <v>-363.947</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>67995.770333</v>
+        <v>67995.770332999993</v>
       </c>
       <c r="BE21" s="1">
-        <v>18.887714</v>
+        <v>18.887713999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG21" s="1">
-        <v>-608.630000</v>
+        <v>-608.63</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>68007.163965</v>
       </c>
       <c r="BJ21" s="1">
-        <v>18.890879</v>
+        <v>18.890879000000002</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.140000</v>
+        <v>1695.14</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1046.010000</v>
+        <v>-1046.01</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>68018.155279</v>
+        <v>68018.155278999999</v>
       </c>
       <c r="BO21" s="1">
         <v>18.893932</v>
       </c>
       <c r="BP21" s="1">
-        <v>1991.120000</v>
+        <v>1991.12</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1801.330000</v>
+        <v>-1801.33</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>68029.194743</v>
       </c>
       <c r="BT21" s="1">
-        <v>18.896999</v>
+        <v>18.896999000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2380.670000</v>
+        <v>2380.67</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2671.520000</v>
+        <v>-2671.52</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>68040.247587</v>
+        <v>68040.247587000005</v>
       </c>
       <c r="BY21" s="1">
-        <v>18.900069</v>
+        <v>18.900068999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2862.560000</v>
+        <v>2862.56</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3611.530000</v>
+        <v>-3611.53</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>68053.116308</v>
+        <v>68053.116307999997</v>
       </c>
       <c r="CD21" s="1">
-        <v>18.903643</v>
+        <v>18.903642999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4262.890000</v>
+        <v>4262.8900000000003</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5877.150000</v>
+        <v>-5877.15</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>67879.882565</v>
+        <v>67879.882565000007</v>
       </c>
       <c r="B22" s="1">
-        <v>18.855523</v>
+        <v>18.855523000000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.150000</v>
+        <v>1242.1500000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-310.842000</v>
+        <v>-310.84199999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>67889.998968</v>
       </c>
       <c r="G22" s="1">
-        <v>18.858333</v>
+        <v>18.858332999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.840000</v>
+        <v>1268.8399999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-269.468000</v>
+        <v>-269.46800000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>67900.470046</v>
+        <v>67900.470046000002</v>
       </c>
       <c r="L22" s="1">
-        <v>18.861242</v>
+        <v>18.861242000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.950000</v>
+        <v>1305.95</v>
       </c>
       <c r="N22" s="1">
-        <v>-206.408000</v>
+        <v>-206.40799999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>67911.018925</v>
+        <v>67911.018924999997</v>
       </c>
       <c r="Q22" s="1">
         <v>18.864172</v>
       </c>
       <c r="R22" s="1">
-        <v>1318.540000</v>
+        <v>1318.54</v>
       </c>
       <c r="S22" s="1">
-        <v>-187.955000</v>
+        <v>-187.95500000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>67921.490959</v>
+        <v>67921.490959000002</v>
       </c>
       <c r="V22" s="1">
-        <v>18.867081</v>
+        <v>18.867080999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="X22" s="1">
-        <v>-174.003000</v>
+        <v>-174.00299999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>67931.750705</v>
+        <v>67931.750704999999</v>
       </c>
       <c r="AA22" s="1">
-        <v>18.869931</v>
+        <v>18.869931000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1350.170000</v>
+        <v>1350.17</v>
       </c>
       <c r="AC22" s="1">
-        <v>-171.400000</v>
+        <v>-171.4</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>67942.218277</v>
+        <v>67942.218277000007</v>
       </c>
       <c r="AF22" s="1">
-        <v>18.872838</v>
+        <v>18.872838000000002</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.620000</v>
+        <v>1363.62</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.746000</v>
+        <v>-180.74600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>67952.712133</v>
+        <v>67952.712132999994</v>
       </c>
       <c r="AK22" s="1">
         <v>18.875753</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM22" s="1">
-        <v>-210.165000</v>
+        <v>-210.16499999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>67963.598360</v>
+        <v>67963.598360000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>18.878777</v>
+        <v>18.878776999999999</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1407.150000</v>
+        <v>1407.15</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.411000</v>
+        <v>-253.411</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>67974.600598</v>
+        <v>67974.600598000005</v>
       </c>
       <c r="AU22" s="1">
         <v>18.881833</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.580000</v>
+        <v>-312.58</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>67985.159916</v>
+        <v>67985.159916000004</v>
       </c>
       <c r="AZ22" s="1">
         <v>18.884767</v>
       </c>
       <c r="BA22" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB22" s="1">
-        <v>-363.956000</v>
+        <v>-363.95600000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>67996.131421</v>
+        <v>67996.131420999998</v>
       </c>
       <c r="BE22" s="1">
-        <v>18.887814</v>
+        <v>18.887813999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.980000</v>
+        <v>1538.98</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.617000</v>
+        <v>-608.61699999999996</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>68007.913388</v>
+        <v>68007.913388000001</v>
       </c>
       <c r="BJ22" s="1">
-        <v>18.891087</v>
+        <v>18.891086999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.090000</v>
+        <v>1695.09</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1046.130000</v>
+        <v>-1046.1300000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>68018.569934</v>
+        <v>68018.569933999999</v>
       </c>
       <c r="BO22" s="1">
         <v>18.894047</v>
       </c>
       <c r="BP22" s="1">
-        <v>1991.070000</v>
+        <v>1991.07</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1801.370000</v>
+        <v>-1801.37</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>68029.631712</v>
+        <v>68029.631712000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>18.897120</v>
+        <v>18.897120000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2380.440000</v>
+        <v>2380.44</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2671.670000</v>
+        <v>-2671.67</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>68040.694519</v>
+        <v>68040.694518999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>18.900193</v>
+        <v>18.900193000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2861.970000</v>
+        <v>2861.97</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3611.850000</v>
+        <v>-3611.85</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>68053.958531</v>
+        <v>68053.958530999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>18.903877</v>
+        <v>18.903877000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4280.150000</v>
+        <v>4280.1499999999996</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5872.860000</v>
+        <v>-5872.86</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>67880.233269</v>
+        <v>67880.233269000004</v>
       </c>
       <c r="B23" s="1">
-        <v>18.855620</v>
+        <v>18.855619999999998</v>
       </c>
       <c r="C23" s="1">
-        <v>1241.880000</v>
+        <v>1241.8800000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-311.161000</v>
+        <v>-311.161</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>67890.348189</v>
+        <v>67890.348188999997</v>
       </c>
       <c r="G23" s="1">
-        <v>18.858430</v>
+        <v>18.858429999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1268.640000</v>
+        <v>1268.6400000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-269.009000</v>
+        <v>-269.00900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>67900.817212</v>
+        <v>67900.817211999994</v>
       </c>
       <c r="L23" s="1">
         <v>18.861338</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.770000</v>
+        <v>1305.77</v>
       </c>
       <c r="N23" s="1">
-        <v>-206.133000</v>
+        <v>-206.13300000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>67911.368109</v>
+        <v>67911.368109000003</v>
       </c>
       <c r="Q23" s="1">
         <v>18.864269</v>
       </c>
       <c r="R23" s="1">
-        <v>1318.490000</v>
+        <v>1318.49</v>
       </c>
       <c r="S23" s="1">
-        <v>-188.037000</v>
+        <v>-188.03700000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>67921.914048</v>
+        <v>67921.914048000006</v>
       </c>
       <c r="V23" s="1">
-        <v>18.867198</v>
+        <v>18.867197999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="X23" s="1">
-        <v>-174.016000</v>
+        <v>-174.01599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>67932.024993</v>
+        <v>67932.024992999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>18.870007</v>
+        <v>18.870007000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1350.080000</v>
+        <v>1350.08</v>
       </c>
       <c r="AC23" s="1">
-        <v>-171.449000</v>
+        <v>-171.44900000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>67942.511942</v>
+        <v>67942.511941999997</v>
       </c>
       <c r="AF23" s="1">
-        <v>18.872920</v>
+        <v>18.872920000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.490000</v>
+        <v>1363.49</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.723000</v>
+        <v>-180.72300000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>67953.060853</v>
+        <v>67953.060853000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>18.875850</v>
+        <v>18.87585</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM23" s="1">
-        <v>-210.125000</v>
+        <v>-210.125</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>67963.961399</v>
+        <v>67963.961399000007</v>
       </c>
       <c r="AP23" s="1">
         <v>18.878878</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.368000</v>
+        <v>-253.36799999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>67974.966664</v>
+        <v>67974.966664000007</v>
       </c>
       <c r="AU23" s="1">
-        <v>18.881935</v>
+        <v>18.881934999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.400000</v>
+        <v>1432.4</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.594000</v>
+        <v>-312.59399999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>67985.872679</v>
+        <v>67985.872678999993</v>
       </c>
       <c r="AZ23" s="1">
-        <v>18.884965</v>
+        <v>18.884965000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1452.160000</v>
+        <v>1452.16</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.999000</v>
+        <v>-363.99900000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>67996.850142</v>
+        <v>67996.850141999996</v>
       </c>
       <c r="BE23" s="1">
-        <v>18.888014</v>
+        <v>18.888013999999998</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.950000</v>
+        <v>1538.95</v>
       </c>
       <c r="BG23" s="1">
-        <v>-608.577000</v>
+        <v>-608.577</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>68008.316141</v>
+        <v>68008.316141000003</v>
       </c>
       <c r="BJ23" s="1">
         <v>18.891199</v>
       </c>
       <c r="BK23" s="1">
-        <v>1694.880000</v>
+        <v>1694.88</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1046.070000</v>
+        <v>-1046.07</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>68018.970206</v>
+        <v>68018.970205999998</v>
       </c>
       <c r="BO23" s="1">
-        <v>18.894158</v>
+        <v>18.894158000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1991.310000</v>
+        <v>1991.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1801.200000</v>
+        <v>-1801.2</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>68030.061249</v>
+        <v>68030.061249000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>18.897239</v>
+        <v>18.897238999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2379.840000</v>
+        <v>2379.84</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2671.330000</v>
+        <v>-2671.33</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>68041.464303</v>
+        <v>68041.464303000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>18.900407</v>
+        <v>18.900407000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2862.730000</v>
+        <v>2862.73</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3611.660000</v>
+        <v>-3611.66</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>68054.199389</v>
+        <v>68054.199389000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>18.903944</v>
+        <v>18.903943999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4270.580000</v>
+        <v>4270.58</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5855.390000</v>
+        <v>-5855.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>67880.576500</v>
+        <v>67880.576499999996</v>
       </c>
       <c r="B24" s="1">
-        <v>18.855716</v>
+        <v>18.855716000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1241.690000</v>
+        <v>1241.69</v>
       </c>
       <c r="D24" s="1">
-        <v>-311.270000</v>
+        <v>-311.27</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>67890.689401</v>
+        <v>67890.689400999996</v>
       </c>
       <c r="G24" s="1">
         <v>18.858525</v>
       </c>
       <c r="H24" s="1">
-        <v>1268.200000</v>
+        <v>1268.2</v>
       </c>
       <c r="I24" s="1">
-        <v>-269.269000</v>
+        <v>-269.26900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>67901.245753</v>
+        <v>67901.245752999996</v>
       </c>
       <c r="L24" s="1">
-        <v>18.861457</v>
+        <v>18.861457000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.870000</v>
+        <v>1305.8699999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-206.660000</v>
+        <v>-206.66</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>67911.809549</v>
+        <v>67911.809548999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>18.864392</v>
+        <v>18.864391999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1318.440000</v>
+        <v>1318.44</v>
       </c>
       <c r="S24" s="1">
-        <v>-187.991000</v>
+        <v>-187.99100000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>67922.193326</v>
+        <v>67922.193325999993</v>
       </c>
       <c r="V24" s="1">
         <v>18.867276</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.280000</v>
+        <v>1332.28</v>
       </c>
       <c r="X24" s="1">
-        <v>-173.965000</v>
+        <v>-173.965</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>67932.374709</v>
+        <v>67932.374708999996</v>
       </c>
       <c r="AA24" s="1">
-        <v>18.870104</v>
+        <v>18.870104000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1350.230000</v>
+        <v>1350.23</v>
       </c>
       <c r="AC24" s="1">
-        <v>-171.364000</v>
+        <v>-171.364</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>67942.853156</v>
+        <v>67942.853155999997</v>
       </c>
       <c r="AF24" s="1">
-        <v>18.873015</v>
+        <v>18.873014999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.530000</v>
+        <v>1363.53</v>
       </c>
       <c r="AH24" s="1">
-        <v>-180.796000</v>
+        <v>-180.79599999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>67953.408368</v>
+        <v>67953.408368000004</v>
       </c>
       <c r="AK24" s="1">
         <v>18.875947</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM24" s="1">
-        <v>-210.128000</v>
+        <v>-210.12799999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>67964.319015</v>
+        <v>67964.319015000001</v>
       </c>
       <c r="AP24" s="1">
         <v>18.878978</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.387000</v>
+        <v>-253.387</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>67975.694760</v>
+        <v>67975.694759999998</v>
       </c>
       <c r="AU24" s="1">
         <v>18.882137</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.420000</v>
+        <v>1432.42</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.560000</v>
+        <v>-312.56</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>67986.232761</v>
+        <v>67986.232761000007</v>
       </c>
       <c r="AZ24" s="1">
-        <v>18.885065</v>
+        <v>18.885065000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1452.190000</v>
+        <v>1452.19</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.944000</v>
+        <v>-363.94400000000002</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>67997.215180</v>
+        <v>67997.215179999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>18.888115</v>
+        <v>18.888114999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG24" s="1">
-        <v>-608.563000</v>
+        <v>-608.56299999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>68008.692640</v>
+        <v>68008.692639999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>18.891304</v>
+        <v>18.891304000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1046.050000</v>
+        <v>-1046.05</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>68019.709246</v>
+        <v>68019.709245999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>18.894364</v>
+        <v>18.894363999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1991.230000</v>
+        <v>1991.23</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1801.310000</v>
+        <v>-1801.31</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>68030.788916</v>
+        <v>68030.788916000005</v>
       </c>
       <c r="BT24" s="1">
-        <v>18.897441</v>
+        <v>18.897441000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2379.750000</v>
+        <v>2379.75</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2671.250000</v>
+        <v>-2671.25</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>68041.598688</v>
+        <v>68041.598687999998</v>
       </c>
       <c r="BY24" s="1">
         <v>18.900444</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2862.470000</v>
+        <v>2862.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3611.370000</v>
+        <v>-3611.37</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>68054.733249</v>
+        <v>68054.733248999997</v>
       </c>
       <c r="CD24" s="1">
         <v>18.904093</v>
       </c>
       <c r="CE24" s="1">
-        <v>4262.310000</v>
+        <v>4262.3100000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5873.200000</v>
+        <v>-5873.2</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>67880.997572</v>
+        <v>67880.997571999993</v>
       </c>
       <c r="B25" s="1">
-        <v>18.855833</v>
+        <v>18.855833000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="D25" s="1">
-        <v>-310.794000</v>
+        <v>-310.79399999999998</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>67891.111992</v>
+        <v>67891.111992000006</v>
       </c>
       <c r="G25" s="1">
         <v>18.858642</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.090000</v>
+        <v>1269.0899999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-269.784000</v>
+        <v>-269.78399999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>67901.508137</v>
+        <v>67901.508136999997</v>
       </c>
       <c r="L25" s="1">
-        <v>18.861530</v>
+        <v>18.861529999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>1306.250000</v>
+        <v>1306.25</v>
       </c>
       <c r="N25" s="1">
-        <v>-206.306000</v>
+        <v>-206.30600000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>67912.074907</v>
+        <v>67912.074907000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>18.864465</v>
+        <v>18.864464999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>1318.410000</v>
+        <v>1318.41</v>
       </c>
       <c r="S25" s="1">
-        <v>-188.034000</v>
+        <v>-188.03399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>67922.526637</v>
+        <v>67922.526637000003</v>
       </c>
       <c r="V25" s="1">
         <v>18.867369</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.160000</v>
+        <v>1332.16</v>
       </c>
       <c r="X25" s="1">
-        <v>-173.868000</v>
+        <v>-173.86799999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>67932.722404</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.870201</v>
+        <v>18.870201000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.140000</v>
+        <v>1350.14</v>
       </c>
       <c r="AC25" s="1">
-        <v>-171.277000</v>
+        <v>-171.27699999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>67943.199363</v>
+        <v>67943.199363000007</v>
       </c>
       <c r="AF25" s="1">
-        <v>18.873111</v>
+        <v>18.873111000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.750000</v>
+        <v>1363.75</v>
       </c>
       <c r="AH25" s="1">
-        <v>-180.839000</v>
+        <v>-180.839</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>67954.106421</v>
+        <v>67954.106421000004</v>
       </c>
       <c r="AK25" s="1">
-        <v>18.876141</v>
+        <v>18.876141000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.880000</v>
+        <v>1384.88</v>
       </c>
       <c r="AM25" s="1">
-        <v>-210.135000</v>
+        <v>-210.13499999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>67965.038710</v>
+        <v>67965.038709999993</v>
       </c>
       <c r="AP25" s="1">
-        <v>18.879177</v>
+        <v>18.879176999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.140000</v>
+        <v>1407.14</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.379000</v>
+        <v>-253.37899999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>67976.089668</v>
+        <v>67976.089668000001</v>
       </c>
       <c r="AU25" s="1">
         <v>18.882247</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.380000</v>
+        <v>1432.38</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.552000</v>
+        <v>-312.55200000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>67986.593352</v>
+        <v>67986.593351999996</v>
       </c>
       <c r="AZ25" s="1">
-        <v>18.885165</v>
+        <v>18.885165000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.963000</v>
+        <v>-363.96300000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>67997.575275</v>
+        <v>67997.575274999996</v>
       </c>
       <c r="BE25" s="1">
-        <v>18.888215</v>
+        <v>18.888214999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.970000</v>
+        <v>1538.97</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.585000</v>
+        <v>-608.58500000000004</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>68009.368155</v>
+        <v>68009.368155000004</v>
       </c>
       <c r="BJ25" s="1">
-        <v>18.891491</v>
+        <v>18.891490999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.130000</v>
+        <v>1695.13</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1046.040000</v>
+        <v>-1046.04</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>68020.209242</v>
+        <v>68020.209241999997</v>
       </c>
       <c r="BO25" s="1">
         <v>18.894503</v>
       </c>
       <c r="BP25" s="1">
-        <v>1991.270000</v>
+        <v>1991.27</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1801.200000</v>
+        <v>-1801.2</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>68030.904487</v>
+        <v>68030.904487000007</v>
       </c>
       <c r="BT25" s="1">
-        <v>18.897473</v>
+        <v>18.897473000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2379.610000</v>
+        <v>2379.61</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2671.670000</v>
+        <v>-2671.67</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>68042.020815</v>
+        <v>68042.020814999996</v>
       </c>
       <c r="BY25" s="1">
         <v>18.900561</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2862.110000</v>
+        <v>2862.11</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3611.290000</v>
+        <v>-3611.29</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>68055.273389</v>
+        <v>68055.273388999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>18.904243</v>
+        <v>18.904243000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>4278.810000</v>
+        <v>4278.8100000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5869.280000</v>
+        <v>-5869.28</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>67881.271364</v>
       </c>
@@ -6649,255 +7065,256 @@
         <v>18.855909</v>
       </c>
       <c r="C26" s="1">
-        <v>1241.700000</v>
+        <v>1241.7</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.919000</v>
+        <v>-310.91899999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>67891.378840</v>
+        <v>67891.378840000005</v>
       </c>
       <c r="G26" s="1">
-        <v>18.858716</v>
+        <v>18.858716000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1268.290000</v>
+        <v>1268.29</v>
       </c>
       <c r="I26" s="1">
-        <v>-269.687000</v>
+        <v>-269.68700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>67901.856826</v>
+        <v>67901.856826000003</v>
       </c>
       <c r="L26" s="1">
-        <v>18.861627</v>
+        <v>18.861626999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1306.160000</v>
+        <v>1306.1600000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-206.495000</v>
+        <v>-206.495</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>67912.423100</v>
+        <v>67912.4231</v>
       </c>
       <c r="Q26" s="1">
-        <v>18.864562</v>
+        <v>18.864561999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1318.340000</v>
+        <v>1318.34</v>
       </c>
       <c r="S26" s="1">
-        <v>-187.949000</v>
+        <v>-187.94900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>67922.880750</v>
+        <v>67922.880749999997</v>
       </c>
       <c r="V26" s="1">
-        <v>18.867467</v>
+        <v>18.867467000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.230000</v>
+        <v>1332.23</v>
       </c>
       <c r="X26" s="1">
-        <v>-173.933000</v>
+        <v>-173.93299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>67933.421262</v>
+        <v>67933.421262000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>18.870395</v>
+        <v>18.870394999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1350.160000</v>
+        <v>1350.16</v>
       </c>
       <c r="AC26" s="1">
-        <v>-171.417000</v>
+        <v>-171.417</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>67943.884833</v>
+        <v>67943.884833000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>18.873301</v>
+        <v>18.873301000000001</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.590000</v>
+        <v>1363.59</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.650000</v>
+        <v>-180.65</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>67954.455076</v>
+        <v>67954.455075999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>18.876238</v>
+        <v>18.876238000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.830000</v>
+        <v>1384.83</v>
       </c>
       <c r="AM26" s="1">
-        <v>-210.143000</v>
+        <v>-210.143</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>67965.424101</v>
+        <v>67965.424100999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>18.879284</v>
+        <v>18.879283999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1407.160000</v>
+        <v>1407.16</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.393000</v>
+        <v>-253.393</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>67976.456320</v>
+        <v>67976.456319999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>18.882349</v>
+        <v>18.882349000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.370000</v>
+        <v>1432.37</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.556000</v>
+        <v>-312.55599999999998</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>67987.284776</v>
       </c>
       <c r="AZ26" s="1">
-        <v>18.885357</v>
+        <v>18.885356999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1452.200000</v>
+        <v>1452.2</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.951000</v>
+        <v>-363.95100000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>67998.257273</v>
+        <v>67998.257272999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>18.888405</v>
+        <v>18.888404999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.000000</v>
+        <v>1539</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.549000</v>
+        <v>-608.54899999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>68009.476780</v>
+        <v>68009.476779999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>18.891521</v>
+        <v>18.891521000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1694.940000</v>
+        <v>1694.94</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.130000</v>
+        <v>-1046.1300000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>68020.626843</v>
+        <v>68020.626843000005</v>
       </c>
       <c r="BO26" s="1">
-        <v>18.894619</v>
+        <v>18.894618999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1991.160000</v>
+        <v>1991.16</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1801.230000</v>
+        <v>-1801.23</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>68031.343405</v>
+        <v>68031.343405000007</v>
       </c>
       <c r="BT26" s="1">
-        <v>18.897595</v>
+        <v>18.897594999999999</v>
       </c>
       <c r="BU26" s="1">
-        <v>2379.160000</v>
+        <v>2379.16</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2671.370000</v>
+        <v>-2671.37</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>68042.441888</v>
+        <v>68042.441888000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>18.900678</v>
+        <v>18.900677999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2862.020000</v>
+        <v>2862.02</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3611.420000</v>
+        <v>-3611.42</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>68055.813037</v>
       </c>
       <c r="CD26" s="1">
-        <v>18.904393</v>
+        <v>18.904392999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4262.250000</v>
+        <v>4262.25</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5859.150000</v>
+        <v>-5859.15</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>